--- a/Docs/需求/(正式5_1_111年)環保署環境部資料_20240410.1100.xlsx
+++ b/Docs/需求/(正式5_1_111年)環保署環境部資料_20240410.1100.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\Esdms\Docs\需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D8B5A0-F06D-4F2F-BCFF-519829B2EF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CC57C2-5855-44EC-9BF4-F449AC9C1995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6C794C7C-3D2F-43FB-8B59-79FE3D9DEF6E}"/>
   </bookViews>
@@ -2746,29 +2746,29 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>標案名稱_UserHistorySetBidName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>A0</t>
   </si>
   <si>
     <t>A0門淨零路徑策略規劃與排放統計精進</t>
   </si>
   <si>
-    <t>委辦單位_FtisActivityCategoryId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>會外年度_SetOutYear</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>處室組別_SetCommUnit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>評選委員_Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>處室組別_SetName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>標案名稱_SetBidName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>委辦單位(會議代碼)_FtisActivityCategoryId</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3282,7 +3282,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -3294,19 +3294,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>764</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>766</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.4">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
@@ -3382,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>8</v>
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>8</v>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>8</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>13</v>
@@ -3450,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>16</v>
@@ -3467,7 +3467,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>18</v>
@@ -3484,7 +3484,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>21</v>
@@ -3501,7 +3501,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>12</v>
@@ -3518,7 +3518,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>12</v>
@@ -3535,7 +3535,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>3</v>
@@ -3552,7 +3552,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>26</v>
@@ -3569,7 +3569,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>26</v>
@@ -3586,7 +3586,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>26</v>
@@ -3603,7 +3603,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>26</v>
@@ -3620,7 +3620,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>18</v>
@@ -3637,7 +3637,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>5</v>
@@ -3654,7 +3654,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>8</v>
@@ -3671,7 +3671,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>33</v>
@@ -3688,7 +3688,7 @@
         <v>35</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>16</v>
@@ -3705,7 +3705,7 @@
         <v>35</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>5</v>
@@ -3722,7 +3722,7 @@
         <v>35</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>5</v>
@@ -3739,7 +3739,7 @@
         <v>35</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>5</v>
@@ -3756,7 +3756,7 @@
         <v>35</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>5</v>
@@ -3773,7 +3773,7 @@
         <v>35</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>1</v>
@@ -3790,7 +3790,7 @@
         <v>35</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>1</v>
@@ -3807,7 +3807,7 @@
         <v>35</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>41</v>
@@ -3824,7 +3824,7 @@
         <v>43</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>1</v>
@@ -3841,7 +3841,7 @@
         <v>43</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>1</v>
@@ -3858,7 +3858,7 @@
         <v>43</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>1</v>
@@ -3875,7 +3875,7 @@
         <v>43</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>1</v>
@@ -3892,7 +3892,7 @@
         <v>43</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>21</v>
@@ -3909,7 +3909,7 @@
         <v>47</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>12</v>
@@ -3918,7 +3918,7 @@
         <v>111</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.4">
@@ -3926,7 +3926,7 @@
         <v>47</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>12</v>
@@ -3943,7 +3943,7 @@
         <v>47</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>1</v>
@@ -3960,7 +3960,7 @@
         <v>47</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>5</v>
@@ -3977,7 +3977,7 @@
         <v>47</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>41</v>
@@ -3994,7 +3994,7 @@
         <v>52</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>18</v>
@@ -4011,7 +4011,7 @@
         <v>52</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>21</v>
@@ -4028,7 +4028,7 @@
         <v>52</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>12</v>
@@ -4045,7 +4045,7 @@
         <v>55</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>5</v>
@@ -4062,7 +4062,7 @@
         <v>56</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>1</v>
@@ -4079,7 +4079,7 @@
         <v>56</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>1</v>
@@ -4096,7 +4096,7 @@
         <v>56</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>5</v>
@@ -4113,7 +4113,7 @@
         <v>56</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>5</v>
@@ -4130,7 +4130,7 @@
         <v>56</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>8</v>
@@ -4147,7 +4147,7 @@
         <v>56</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>41</v>
@@ -4164,7 +4164,7 @@
         <v>56</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>21</v>
@@ -4181,7 +4181,7 @@
         <v>59</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>13</v>
@@ -4198,7 +4198,7 @@
         <v>59</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>13</v>
@@ -4215,7 +4215,7 @@
         <v>59</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>13</v>
@@ -4232,7 +4232,7 @@
         <v>59</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>13</v>
@@ -4249,7 +4249,7 @@
         <v>59</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>13</v>
@@ -4266,7 +4266,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>26</v>
@@ -4283,7 +4283,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>26</v>
@@ -4300,7 +4300,7 @@
         <v>65</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>1</v>
@@ -4317,7 +4317,7 @@
         <v>65</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>1</v>
@@ -4334,7 +4334,7 @@
         <v>65</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>1</v>
@@ -4351,7 +4351,7 @@
         <v>66</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>13</v>
@@ -4368,7 +4368,7 @@
         <v>66</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>13</v>
@@ -4385,7 +4385,7 @@
         <v>66</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>21</v>
@@ -4402,7 +4402,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>5</v>
@@ -4419,7 +4419,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>5</v>
@@ -4436,7 +4436,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>8</v>
@@ -4453,7 +4453,7 @@
         <v>66</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>8</v>
@@ -4470,7 +4470,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>15</v>
@@ -4487,7 +4487,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>1</v>
@@ -4504,7 +4504,7 @@
         <v>69</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>16</v>
@@ -4521,7 +4521,7 @@
         <v>69</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>41</v>
@@ -4538,7 +4538,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>18</v>
@@ -4555,7 +4555,7 @@
         <v>72</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>18</v>
@@ -4572,7 +4572,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>18</v>
@@ -4589,7 +4589,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>18</v>
@@ -4606,7 +4606,7 @@
         <v>75</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>12</v>
@@ -4615,7 +4615,7 @@
         <v>111</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.4">
@@ -4623,7 +4623,7 @@
         <v>75</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>3</v>
@@ -4640,7 +4640,7 @@
         <v>75</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>8</v>
@@ -4657,7 +4657,7 @@
         <v>75</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>26</v>
@@ -4674,7 +4674,7 @@
         <v>76</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>1</v>
@@ -4691,7 +4691,7 @@
         <v>76</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>1</v>
@@ -4708,7 +4708,7 @@
         <v>76</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>1</v>
@@ -4725,7 +4725,7 @@
         <v>76</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>1</v>
@@ -4742,7 +4742,7 @@
         <v>76</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>8</v>
@@ -4759,7 +4759,7 @@
         <v>77</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>1</v>
@@ -4776,7 +4776,7 @@
         <v>77</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>1</v>
@@ -4793,7 +4793,7 @@
         <v>77</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>1</v>
@@ -4810,7 +4810,7 @@
         <v>77</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>1</v>
@@ -4827,7 +4827,7 @@
         <v>77</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>12</v>
@@ -4844,7 +4844,7 @@
         <v>77</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>21</v>
@@ -4861,7 +4861,7 @@
         <v>77</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>13</v>
@@ -4878,7 +4878,7 @@
         <v>79</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>26</v>
@@ -4895,7 +4895,7 @@
         <v>79</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>26</v>
@@ -4912,7 +4912,7 @@
         <v>79</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>26</v>
@@ -4929,7 +4929,7 @@
         <v>79</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>26</v>
@@ -4946,7 +4946,7 @@
         <v>79</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>26</v>
@@ -4963,7 +4963,7 @@
         <v>79</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>26</v>
@@ -4980,7 +4980,7 @@
         <v>79</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>8</v>
@@ -4997,7 +4997,7 @@
         <v>79</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>8</v>
@@ -5014,7 +5014,7 @@
         <v>88</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>26</v>
@@ -5031,7 +5031,7 @@
         <v>88</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>26</v>
@@ -5048,7 +5048,7 @@
         <v>88</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>26</v>
@@ -5065,7 +5065,7 @@
         <v>88</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>26</v>
@@ -5082,7 +5082,7 @@
         <v>88</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>8</v>
@@ -5099,7 +5099,7 @@
         <v>90</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>12</v>
@@ -5116,7 +5116,7 @@
         <v>90</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>12</v>
@@ -5133,7 +5133,7 @@
         <v>90</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>18</v>
@@ -5150,7 +5150,7 @@
         <v>90</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>18</v>
@@ -5167,7 +5167,7 @@
         <v>90</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>26</v>
@@ -5184,7 +5184,7 @@
         <v>90</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>5</v>
@@ -5201,7 +5201,7 @@
         <v>91</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>13</v>
@@ -5218,7 +5218,7 @@
         <v>91</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>13</v>
@@ -5235,7 +5235,7 @@
         <v>91</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>13</v>
@@ -5252,7 +5252,7 @@
         <v>91</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>16</v>
@@ -5269,7 +5269,7 @@
         <v>92</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>18</v>
@@ -5286,7 +5286,7 @@
         <v>92</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>18</v>
@@ -5303,7 +5303,7 @@
         <v>93</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>12</v>
@@ -5320,7 +5320,7 @@
         <v>94</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>1</v>
@@ -5337,7 +5337,7 @@
         <v>94</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>1</v>
@@ -5354,7 +5354,7 @@
         <v>95</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>12</v>
@@ -5371,7 +5371,7 @@
         <v>95</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>1</v>
@@ -5388,7 +5388,7 @@
         <v>96</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>26</v>
@@ -5405,7 +5405,7 @@
         <v>96</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>26</v>
@@ -5422,7 +5422,7 @@
         <v>96</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>26</v>
@@ -5439,7 +5439,7 @@
         <v>96</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>8</v>
@@ -5456,7 +5456,7 @@
         <v>97</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>18</v>
@@ -5473,7 +5473,7 @@
         <v>97</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>26</v>
@@ -5490,7 +5490,7 @@
         <v>97</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>26</v>
@@ -5507,7 +5507,7 @@
         <v>97</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>15</v>
@@ -5524,7 +5524,7 @@
         <v>98</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>1</v>
@@ -5541,7 +5541,7 @@
         <v>99</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>26</v>
@@ -5558,7 +5558,7 @@
         <v>99</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>26</v>
@@ -5575,7 +5575,7 @@
         <v>99</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>26</v>
@@ -5592,7 +5592,7 @@
         <v>99</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>8</v>
@@ -5609,7 +5609,7 @@
         <v>99</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>8</v>
@@ -5626,7 +5626,7 @@
         <v>100</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>8</v>
@@ -5643,7 +5643,7 @@
         <v>101</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>13</v>
@@ -5660,7 +5660,7 @@
         <v>101</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>13</v>
@@ -5677,7 +5677,7 @@
         <v>101</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>41</v>
@@ -5694,7 +5694,7 @@
         <v>101</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>103</v>
@@ -5711,7 +5711,7 @@
         <v>101</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>21</v>
@@ -5728,7 +5728,7 @@
         <v>106</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>3</v>
@@ -5745,7 +5745,7 @@
         <v>106</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>1</v>
@@ -5762,7 +5762,7 @@
         <v>107</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>15</v>
@@ -5779,7 +5779,7 @@
         <v>108</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>5</v>
@@ -5796,7 +5796,7 @@
         <v>108</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>5</v>
@@ -5813,7 +5813,7 @@
         <v>108</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>5</v>
@@ -5830,7 +5830,7 @@
         <v>108</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>5</v>
@@ -5847,7 +5847,7 @@
         <v>108</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>12</v>
@@ -5864,7 +5864,7 @@
         <v>109</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>15</v>
@@ -5881,7 +5881,7 @@
         <v>109</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>8</v>
@@ -5898,7 +5898,7 @@
         <v>110</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>5</v>
@@ -5915,7 +5915,7 @@
         <v>110</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>8</v>
@@ -5932,7 +5932,7 @@
         <v>110</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>8</v>
@@ -5949,7 +5949,7 @@
         <v>112</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>18</v>
@@ -5966,7 +5966,7 @@
         <v>113</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>41</v>
@@ -5983,7 +5983,7 @@
         <v>113</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>41</v>
@@ -6000,7 +6000,7 @@
         <v>114</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>21</v>
@@ -6017,7 +6017,7 @@
         <v>115</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>18</v>
@@ -6034,7 +6034,7 @@
         <v>115</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>103</v>
@@ -6051,7 +6051,7 @@
         <v>115</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>21</v>
@@ -6068,7 +6068,7 @@
         <v>116</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>16</v>
@@ -6085,7 +6085,7 @@
         <v>116</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>16</v>
@@ -6102,7 +6102,7 @@
         <v>117</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>16</v>
@@ -6119,7 +6119,7 @@
         <v>118</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>18</v>
@@ -6136,7 +6136,7 @@
         <v>118</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>18</v>
@@ -6153,7 +6153,7 @@
         <v>119</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>18</v>
@@ -6170,7 +6170,7 @@
         <v>119</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>26</v>
@@ -6187,7 +6187,7 @@
         <v>120</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>12</v>
@@ -6196,7 +6196,7 @@
         <v>111</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.4">
@@ -6204,7 +6204,7 @@
         <v>120</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>12</v>
@@ -6221,7 +6221,7 @@
         <v>120</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>1</v>
@@ -6238,7 +6238,7 @@
         <v>121</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>13</v>
@@ -6255,7 +6255,7 @@
         <v>121</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C175" s="4" t="s">
         <v>13</v>
@@ -6272,7 +6272,7 @@
         <v>121</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>1</v>
@@ -6289,7 +6289,7 @@
         <v>122</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>21</v>
@@ -6306,7 +6306,7 @@
         <v>123</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>18</v>
@@ -6323,7 +6323,7 @@
         <v>123</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>5</v>
@@ -6340,7 +6340,7 @@
         <v>123</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>8</v>
@@ -6357,7 +6357,7 @@
         <v>123</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>1</v>
@@ -6374,7 +6374,7 @@
         <v>124</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>12</v>
@@ -6383,7 +6383,7 @@
         <v>111</v>
       </c>
       <c r="E182" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.4">
@@ -6391,7 +6391,7 @@
         <v>124</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>12</v>
@@ -6408,7 +6408,7 @@
         <v>124</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>16</v>
@@ -6425,7 +6425,7 @@
         <v>124</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>41</v>
@@ -6442,7 +6442,7 @@
         <v>126</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>18</v>
@@ -6459,7 +6459,7 @@
         <v>127</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>21</v>
@@ -6476,7 +6476,7 @@
         <v>127</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>1</v>
@@ -6493,7 +6493,7 @@
         <v>128</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>26</v>
@@ -6510,7 +6510,7 @@
         <v>128</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>26</v>
@@ -6527,7 +6527,7 @@
         <v>129</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>1</v>
@@ -6544,7 +6544,7 @@
         <v>130</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>5</v>
@@ -6561,7 +6561,7 @@
         <v>130</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>12</v>
@@ -6578,7 +6578,7 @@
         <v>131</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>13</v>
@@ -6595,7 +6595,7 @@
         <v>131</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>13</v>
@@ -6612,7 +6612,7 @@
         <v>132</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>16</v>
@@ -6629,7 +6629,7 @@
         <v>132</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>16</v>
@@ -6646,7 +6646,7 @@
         <v>133</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>26</v>
@@ -6663,7 +6663,7 @@
         <v>133</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>26</v>
@@ -6680,7 +6680,7 @@
         <v>134</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>8</v>
@@ -6697,7 +6697,7 @@
         <v>134</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>8</v>
@@ -6714,7 +6714,7 @@
         <v>134</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>21</v>
@@ -6731,7 +6731,7 @@
         <v>135</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>8</v>
@@ -6748,7 +6748,7 @@
         <v>135</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>8</v>
@@ -6765,7 +6765,7 @@
         <v>135</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>8</v>
@@ -6782,7 +6782,7 @@
         <v>135</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>8</v>
@@ -6799,7 +6799,7 @@
         <v>135</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>8</v>
@@ -6816,7 +6816,7 @@
         <v>136</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>8</v>
@@ -6833,7 +6833,7 @@
         <v>136</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>8</v>
@@ -6850,7 +6850,7 @@
         <v>136</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>8</v>
@@ -6867,7 +6867,7 @@
         <v>136</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>8</v>
@@ -6884,7 +6884,7 @@
         <v>136</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>8</v>
@@ -6901,7 +6901,7 @@
         <v>137</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>41</v>
@@ -6918,7 +6918,7 @@
         <v>137</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>26</v>
@@ -6935,7 +6935,7 @@
         <v>139</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>41</v>
@@ -6952,7 +6952,7 @@
         <v>139</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>41</v>
@@ -6969,7 +6969,7 @@
         <v>139</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>41</v>
@@ -6986,7 +6986,7 @@
         <v>141</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>26</v>
@@ -7003,7 +7003,7 @@
         <v>142</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>15</v>
@@ -7020,7 +7020,7 @@
         <v>143</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>1</v>
@@ -7037,7 +7037,7 @@
         <v>144</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>41</v>
@@ -7054,7 +7054,7 @@
         <v>145</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>41</v>
@@ -7071,7 +7071,7 @@
         <v>147</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>41</v>
@@ -7088,7 +7088,7 @@
         <v>147</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>41</v>
@@ -7105,7 +7105,7 @@
         <v>148</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>13</v>
@@ -7122,7 +7122,7 @@
         <v>148</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>8</v>
@@ -7139,7 +7139,7 @@
         <v>149</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>41</v>
@@ -7156,7 +7156,7 @@
         <v>150</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>13</v>
@@ -7173,7 +7173,7 @@
         <v>150</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>13</v>
@@ -7190,7 +7190,7 @@
         <v>150</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>13</v>
@@ -7207,7 +7207,7 @@
         <v>151</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>103</v>
@@ -7224,7 +7224,7 @@
         <v>151</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>103</v>
@@ -7241,7 +7241,7 @@
         <v>151</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>15</v>
@@ -7258,7 +7258,7 @@
         <v>153</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>26</v>
@@ -7275,7 +7275,7 @@
         <v>153</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>26</v>
@@ -7292,7 +7292,7 @@
         <v>153</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>21</v>
@@ -7309,7 +7309,7 @@
         <v>154</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C237" s="4" t="s">
         <v>1</v>
@@ -7326,7 +7326,7 @@
         <v>155</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>21</v>
@@ -7343,7 +7343,7 @@
         <v>156</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>26</v>
@@ -7360,7 +7360,7 @@
         <v>156</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>26</v>
@@ -7377,7 +7377,7 @@
         <v>156</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>26</v>
@@ -7394,7 +7394,7 @@
         <v>157</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>103</v>
@@ -7411,7 +7411,7 @@
         <v>157</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>103</v>
@@ -7428,7 +7428,7 @@
         <v>158</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>8</v>
@@ -7445,7 +7445,7 @@
         <v>158</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>8</v>
@@ -7462,7 +7462,7 @@
         <v>158</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>21</v>
@@ -7479,7 +7479,7 @@
         <v>159</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>41</v>
@@ -7496,7 +7496,7 @@
         <v>159</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>8</v>
@@ -7513,7 +7513,7 @@
         <v>160</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>16</v>
@@ -7530,7 +7530,7 @@
         <v>161</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>18</v>
@@ -7547,7 +7547,7 @@
         <v>161</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>18</v>
@@ -7564,7 +7564,7 @@
         <v>162</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>1</v>
@@ -7581,7 +7581,7 @@
         <v>163</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>21</v>
@@ -7598,7 +7598,7 @@
         <v>164</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>41</v>
@@ -7615,7 +7615,7 @@
         <v>165</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>18</v>
@@ -7632,7 +7632,7 @@
         <v>166</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>26</v>
@@ -7649,7 +7649,7 @@
         <v>167</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>18</v>
@@ -7666,7 +7666,7 @@
         <v>168</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>21</v>
@@ -7683,7 +7683,7 @@
         <v>170</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>26</v>
@@ -7700,7 +7700,7 @@
         <v>171</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C260" s="4" t="s">
         <v>21</v>
@@ -7717,7 +7717,7 @@
         <v>173</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>8</v>
@@ -7734,7 +7734,7 @@
         <v>174</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>33</v>
@@ -7751,7 +7751,7 @@
         <v>175</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>21</v>
@@ -7768,7 +7768,7 @@
         <v>176</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>26</v>
@@ -7785,7 +7785,7 @@
         <v>177</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>18</v>
@@ -7802,7 +7802,7 @@
         <v>178</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C266" s="4" t="s">
         <v>41</v>
@@ -7819,7 +7819,7 @@
         <v>180</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>21</v>
@@ -7836,7 +7836,7 @@
         <v>181</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C268" s="4" t="s">
         <v>26</v>
@@ -7853,7 +7853,7 @@
         <v>182</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>26</v>
@@ -7870,7 +7870,7 @@
         <v>184</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>8</v>
@@ -7887,7 +7887,7 @@
         <v>184</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C271" s="4" t="s">
         <v>8</v>
@@ -7904,7 +7904,7 @@
         <v>185</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>26</v>
@@ -7921,7 +7921,7 @@
         <v>185</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>26</v>
@@ -7938,7 +7938,7 @@
         <v>186</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C274" s="4" t="s">
         <v>13</v>
@@ -7955,7 +7955,7 @@
         <v>186</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>8</v>
@@ -7972,7 +7972,7 @@
         <v>187</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>188</v>
@@ -7989,7 +7989,7 @@
         <v>187</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>188</v>
@@ -8006,7 +8006,7 @@
         <v>190</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>188</v>
@@ -8023,7 +8023,7 @@
         <v>190</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C279" s="4" t="s">
         <v>188</v>
@@ -8040,7 +8040,7 @@
         <v>191</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C280" s="4" t="s">
         <v>8</v>
@@ -8057,7 +8057,7 @@
         <v>192</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C281" s="4" t="s">
         <v>21</v>
@@ -8074,7 +8074,7 @@
         <v>193</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C282" s="4" t="s">
         <v>41</v>
@@ -8091,7 +8091,7 @@
         <v>194</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C283" s="4" t="s">
         <v>12</v>
@@ -8100,7 +8100,7 @@
         <v>111</v>
       </c>
       <c r="E283" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.4">
@@ -8108,7 +8108,7 @@
         <v>195</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C284" s="4" t="s">
         <v>13</v>
@@ -8125,7 +8125,7 @@
         <v>196</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C285" s="4" t="s">
         <v>41</v>
@@ -8142,7 +8142,7 @@
         <v>197</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C286" s="4" t="s">
         <v>33</v>
@@ -8159,7 +8159,7 @@
         <v>198</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>16</v>
@@ -8176,7 +8176,7 @@
         <v>199</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>21</v>
@@ -8193,7 +8193,7 @@
         <v>200</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C289" s="4" t="s">
         <v>103</v>
@@ -8210,7 +8210,7 @@
         <v>201</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C290" s="4" t="s">
         <v>21</v>
@@ -8227,7 +8227,7 @@
         <v>202</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>26</v>
@@ -8244,7 +8244,7 @@
         <v>203</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>8</v>
@@ -8261,7 +8261,7 @@
         <v>204</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C293" s="4" t="s">
         <v>41</v>
@@ -8278,7 +8278,7 @@
         <v>205</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C294" s="4" t="s">
         <v>5</v>
@@ -8295,7 +8295,7 @@
         <v>206</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C295" s="4" t="s">
         <v>41</v>
@@ -8312,7 +8312,7 @@
         <v>207</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>16</v>
@@ -8329,7 +8329,7 @@
         <v>208</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>41</v>
@@ -8346,7 +8346,7 @@
         <v>211</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>1</v>
@@ -8363,7 +8363,7 @@
         <v>212</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>13</v>
@@ -8380,7 +8380,7 @@
         <v>213</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C300" s="4" t="s">
         <v>26</v>
@@ -8397,7 +8397,7 @@
         <v>214</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>26</v>
@@ -8414,7 +8414,7 @@
         <v>215</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>8</v>
@@ -8431,7 +8431,7 @@
         <v>216</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>13</v>
@@ -8448,7 +8448,7 @@
         <v>217</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C304" s="4" t="s">
         <v>21</v>
@@ -8465,7 +8465,7 @@
         <v>218</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C305" s="4" t="s">
         <v>26</v>
@@ -8482,7 +8482,7 @@
         <v>219</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>21</v>
@@ -8499,7 +8499,7 @@
         <v>220</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>41</v>
@@ -8516,7 +8516,7 @@
         <v>221</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>41</v>
@@ -8533,7 +8533,7 @@
         <v>222</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>5</v>
@@ -8550,7 +8550,7 @@
         <v>223</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>224</v>
@@ -8567,7 +8567,7 @@
         <v>225</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>26</v>
@@ -8584,7 +8584,7 @@
         <v>226</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C312" s="4" t="s">
         <v>224</v>
@@ -8601,7 +8601,7 @@
         <v>227</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>224</v>
@@ -8618,7 +8618,7 @@
         <v>228</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>8</v>
@@ -8635,7 +8635,7 @@
         <v>229</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C315" s="4" t="s">
         <v>26</v>
@@ -8652,7 +8652,7 @@
         <v>230</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C316" s="4" t="s">
         <v>16</v>
@@ -8669,7 +8669,7 @@
         <v>231</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>16</v>
@@ -8686,7 +8686,7 @@
         <v>232</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>16</v>
@@ -8703,7 +8703,7 @@
         <v>233</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C319" s="4" t="s">
         <v>21</v>
@@ -8720,7 +8720,7 @@
         <v>234</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C320" s="4" t="s">
         <v>41</v>
@@ -8737,7 +8737,7 @@
         <v>235</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C321" s="4" t="s">
         <v>41</v>
@@ -8754,7 +8754,7 @@
         <v>236</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>26</v>
@@ -8771,7 +8771,7 @@
         <v>237</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C323" s="4" t="s">
         <v>33</v>
@@ -8788,7 +8788,7 @@
         <v>238</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C324" s="4" t="s">
         <v>26</v>
@@ -8805,7 +8805,7 @@
         <v>239</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C325" s="4" t="s">
         <v>41</v>
@@ -8822,7 +8822,7 @@
         <v>240</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>188</v>
@@ -8839,7 +8839,7 @@
         <v>241</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C327" s="4" t="s">
         <v>188</v>
@@ -8856,7 +8856,7 @@
         <v>242</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C328" s="4" t="s">
         <v>188</v>
@@ -8873,7 +8873,7 @@
         <v>243</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>41</v>
@@ -8890,7 +8890,7 @@
         <v>244</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>41</v>
@@ -8907,7 +8907,7 @@
         <v>245</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>5</v>
@@ -8924,7 +8924,7 @@
         <v>246</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>21</v>
@@ -8941,7 +8941,7 @@
         <v>247</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>1</v>
@@ -8958,7 +8958,7 @@
         <v>248</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C334" s="4" t="s">
         <v>21</v>
@@ -8975,7 +8975,7 @@
         <v>249</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C335" s="4" t="s">
         <v>21</v>
@@ -8992,7 +8992,7 @@
         <v>250</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>21</v>
@@ -9009,7 +9009,7 @@
         <v>251</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>21</v>
@@ -9026,7 +9026,7 @@
         <v>252</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>1</v>
@@ -9043,7 +9043,7 @@
         <v>253</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>1</v>
@@ -9060,7 +9060,7 @@
         <v>254</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>8</v>
@@ -9077,7 +9077,7 @@
         <v>262</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>1</v>
@@ -9094,7 +9094,7 @@
         <v>262</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>1</v>
@@ -9111,7 +9111,7 @@
         <v>264</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C343" s="6" t="s">
         <v>26</v>
@@ -9128,7 +9128,7 @@
         <v>265</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C344" s="6" t="s">
         <v>3</v>
@@ -9145,7 +9145,7 @@
         <v>265</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C345" s="6" t="s">
         <v>15</v>
@@ -9162,7 +9162,7 @@
         <v>267</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C346" s="6" t="s">
         <v>12</v>
@@ -9179,7 +9179,7 @@
         <v>269</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C347" s="6" t="s">
         <v>18</v>
@@ -9196,7 +9196,7 @@
         <v>271</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>224</v>
@@ -9213,7 +9213,7 @@
         <v>271</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>224</v>
@@ -9230,7 +9230,7 @@
         <v>271</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C350" s="4" t="s">
         <v>224</v>
@@ -9247,7 +9247,7 @@
         <v>274</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C351" s="6" t="s">
         <v>15</v>
@@ -9264,7 +9264,7 @@
         <v>275</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>41</v>
@@ -9281,7 +9281,7 @@
         <v>275</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C353" s="6" t="s">
         <v>5</v>
@@ -9298,7 +9298,7 @@
         <v>275</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C354" s="6" t="s">
         <v>12</v>
@@ -9315,7 +9315,7 @@
         <v>278</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C355" s="6" t="s">
         <v>12</v>
@@ -9332,7 +9332,7 @@
         <v>278</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C356" s="6" t="s">
         <v>12</v>
@@ -9349,7 +9349,7 @@
         <v>280</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C357" s="6" t="s">
         <v>18</v>
@@ -9366,7 +9366,7 @@
         <v>281</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C358" s="6" t="s">
         <v>16</v>
@@ -9383,7 +9383,7 @@
         <v>281</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C359" s="6" t="s">
         <v>283</v>
@@ -9400,7 +9400,7 @@
         <v>284</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>224</v>
@@ -9417,7 +9417,7 @@
         <v>284</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C361" s="6" t="s">
         <v>18</v>
@@ -9434,7 +9434,7 @@
         <v>284</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C362" s="6" t="s">
         <v>18</v>
@@ -9451,7 +9451,7 @@
         <v>284</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C363" s="6" t="s">
         <v>26</v>
@@ -9468,7 +9468,7 @@
         <v>284</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C364" s="6" t="s">
         <v>26</v>
@@ -9485,7 +9485,7 @@
         <v>284</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C365" s="6" t="s">
         <v>3</v>
@@ -9502,7 +9502,7 @@
         <v>284</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C366" s="6" t="s">
         <v>5</v>
@@ -9519,7 +9519,7 @@
         <v>284</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C367" s="6" t="s">
         <v>283</v>
@@ -9536,7 +9536,7 @@
         <v>284</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C368" s="6" t="s">
         <v>12</v>
@@ -9553,7 +9553,7 @@
         <v>284</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C369" s="6" t="s">
         <v>12</v>
@@ -9570,7 +9570,7 @@
         <v>289</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>41</v>
@@ -9587,7 +9587,7 @@
         <v>291</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>224</v>
@@ -9604,7 +9604,7 @@
         <v>292</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C372" s="6" t="s">
         <v>18</v>
@@ -9621,7 +9621,7 @@
         <v>294</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C373" s="6" t="s">
         <v>16</v>
@@ -9638,7 +9638,7 @@
         <v>294</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C374" s="6" t="s">
         <v>26</v>
@@ -9655,7 +9655,7 @@
         <v>525</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>1</v>
@@ -9672,7 +9672,7 @@
         <v>525</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>1</v>
@@ -9689,7 +9689,7 @@
         <v>525</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>1</v>
@@ -9706,7 +9706,7 @@
         <v>525</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>1</v>
@@ -9723,7 +9723,7 @@
         <v>525</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>1</v>
@@ -9740,7 +9740,7 @@
         <v>525</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>1</v>
@@ -9757,7 +9757,7 @@
         <v>525</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>1</v>
@@ -9774,7 +9774,7 @@
         <v>525</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>1</v>
@@ -9791,7 +9791,7 @@
         <v>525</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>1</v>
@@ -9808,7 +9808,7 @@
         <v>525</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>1</v>
@@ -9825,7 +9825,7 @@
         <v>525</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>1</v>
@@ -9842,7 +9842,7 @@
         <v>300</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>224</v>
@@ -9859,7 +9859,7 @@
         <v>300</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C387" s="6" t="s">
         <v>5</v>
@@ -9876,7 +9876,7 @@
         <v>301</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>33</v>
@@ -9893,7 +9893,7 @@
         <v>301</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C389" s="6" t="s">
         <v>3</v>
@@ -9910,7 +9910,7 @@
         <v>303</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C390" s="4" t="s">
         <v>33</v>
@@ -9927,7 +9927,7 @@
         <v>304</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C391" s="6" t="s">
         <v>18</v>
@@ -9944,7 +9944,7 @@
         <v>304</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C392" s="6" t="s">
         <v>15</v>
@@ -9961,7 +9961,7 @@
         <v>304</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C393" s="6" t="s">
         <v>15</v>
@@ -9978,7 +9978,7 @@
         <v>306</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C394" s="6" t="s">
         <v>26</v>
@@ -9995,7 +9995,7 @@
         <v>307</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>1</v>
@@ -10012,7 +10012,7 @@
         <v>307</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>1</v>
@@ -10029,7 +10029,7 @@
         <v>307</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C397" s="4" t="s">
         <v>1</v>
@@ -10046,7 +10046,7 @@
         <v>307</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>1</v>
@@ -10063,7 +10063,7 @@
         <v>307</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C399" s="6" t="s">
         <v>26</v>
@@ -10080,7 +10080,7 @@
         <v>307</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C400" s="6" t="s">
         <v>15</v>
@@ -10097,7 +10097,7 @@
         <v>307</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C401" s="6" t="s">
         <v>15</v>
@@ -10114,7 +10114,7 @@
         <v>307</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C402" s="6" t="s">
         <v>15</v>
@@ -10131,7 +10131,7 @@
         <v>307</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C403" s="6" t="s">
         <v>15</v>
@@ -10148,7 +10148,7 @@
         <v>307</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C404" s="6" t="s">
         <v>15</v>
@@ -10165,7 +10165,7 @@
         <v>307</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C405" s="6" t="s">
         <v>283</v>
@@ -10182,7 +10182,7 @@
         <v>307</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C406" s="6" t="s">
         <v>283</v>
@@ -10199,7 +10199,7 @@
         <v>307</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C407" s="6" t="s">
         <v>283</v>
@@ -10216,7 +10216,7 @@
         <v>309</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>224</v>
@@ -10233,7 +10233,7 @@
         <v>309</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C409" s="6" t="s">
         <v>16</v>
@@ -10250,7 +10250,7 @@
         <v>309</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C410" s="6" t="s">
         <v>16</v>
@@ -10267,7 +10267,7 @@
         <v>309</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C411" s="6" t="s">
         <v>16</v>
@@ -10284,7 +10284,7 @@
         <v>310</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>33</v>
@@ -10301,7 +10301,7 @@
         <v>310</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C413" s="6" t="s">
         <v>3</v>
@@ -10318,7 +10318,7 @@
         <v>310</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C414" s="6" t="s">
         <v>3</v>
@@ -10335,7 +10335,7 @@
         <v>311</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C415" s="6" t="s">
         <v>18</v>
@@ -10352,7 +10352,7 @@
         <v>311</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C416" s="6" t="s">
         <v>18</v>
@@ -10369,7 +10369,7 @@
         <v>311</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C417" s="6" t="s">
         <v>3</v>
@@ -10386,7 +10386,7 @@
         <v>311</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C418" s="6" t="s">
         <v>283</v>
@@ -10403,7 +10403,7 @@
         <v>311</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C419" s="6" t="s">
         <v>12</v>
@@ -10420,7 +10420,7 @@
         <v>314</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>224</v>
@@ -10437,7 +10437,7 @@
         <v>315</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>224</v>
@@ -10454,7 +10454,7 @@
         <v>316</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C422" s="4" t="s">
         <v>1</v>
@@ -10471,7 +10471,7 @@
         <v>316</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>1</v>
@@ -10488,7 +10488,7 @@
         <v>316</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C424" s="6" t="s">
         <v>15</v>
@@ -10505,7 +10505,7 @@
         <v>317</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C425" s="6" t="s">
         <v>5</v>
@@ -10522,7 +10522,7 @@
         <v>318</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C426" s="6" t="s">
         <v>15</v>
@@ -10539,7 +10539,7 @@
         <v>319</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>1</v>
@@ -10556,7 +10556,7 @@
         <v>320</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C428" s="6" t="s">
         <v>321</v>
@@ -10573,7 +10573,7 @@
         <v>320</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C429" s="6" t="s">
         <v>26</v>
@@ -10590,7 +10590,7 @@
         <v>322</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>224</v>
@@ -10607,7 +10607,7 @@
         <v>322</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>41</v>
@@ -10624,7 +10624,7 @@
         <v>322</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>41</v>
@@ -10641,7 +10641,7 @@
         <v>322</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>41</v>
@@ -10658,7 +10658,7 @@
         <v>326</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>33</v>
@@ -10675,7 +10675,7 @@
         <v>327</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C435" s="6" t="s">
         <v>3</v>
@@ -10692,7 +10692,7 @@
         <v>329</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C436" s="6" t="s">
         <v>18</v>
@@ -10709,7 +10709,7 @@
         <v>330</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>1</v>
@@ -10726,7 +10726,7 @@
         <v>330</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C438" s="6" t="s">
         <v>3</v>
@@ -10743,7 +10743,7 @@
         <v>330</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C439" s="6" t="s">
         <v>283</v>
@@ -10760,7 +10760,7 @@
         <v>330</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C440" s="6" t="s">
         <v>283</v>
@@ -10777,7 +10777,7 @@
         <v>331</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C441" s="6" t="s">
         <v>16</v>
@@ -10794,7 +10794,7 @@
         <v>331</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C442" s="6" t="s">
         <v>16</v>
@@ -10811,7 +10811,7 @@
         <v>332</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C443" s="6" t="s">
         <v>15</v>
@@ -10828,7 +10828,7 @@
         <v>333</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>41</v>
@@ -10845,7 +10845,7 @@
         <v>334</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>224</v>
@@ -10862,7 +10862,7 @@
         <v>335</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>1</v>
@@ -10879,7 +10879,7 @@
         <v>336</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C447" s="6" t="s">
         <v>15</v>
@@ -10896,7 +10896,7 @@
         <v>338</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>1</v>
@@ -10913,7 +10913,7 @@
         <v>338</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C449" s="6" t="s">
         <v>15</v>
@@ -10930,7 +10930,7 @@
         <v>340</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>41</v>
@@ -10947,7 +10947,7 @@
         <v>340</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>41</v>
@@ -10964,7 +10964,7 @@
         <v>340</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>41</v>
@@ -10981,7 +10981,7 @@
         <v>342</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C453" s="6" t="s">
         <v>5</v>
@@ -10998,7 +10998,7 @@
         <v>343</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C454" s="6" t="s">
         <v>3</v>
@@ -11015,7 +11015,7 @@
         <v>344</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C455" s="6" t="s">
         <v>16</v>
@@ -11032,7 +11032,7 @@
         <v>344</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C456" s="6" t="s">
         <v>15</v>
@@ -11049,7 +11049,7 @@
         <v>345</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C457" s="6" t="s">
         <v>346</v>
@@ -11066,7 +11066,7 @@
         <v>347</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>41</v>
@@ -11083,7 +11083,7 @@
         <v>348</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>224</v>
@@ -11100,7 +11100,7 @@
         <v>348</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>224</v>
@@ -11117,7 +11117,7 @@
         <v>348</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>224</v>
@@ -11134,7 +11134,7 @@
         <v>349</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>33</v>
@@ -11151,7 +11151,7 @@
         <v>349</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C463" s="6" t="s">
         <v>18</v>
@@ -11168,7 +11168,7 @@
         <v>349</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C464" s="6" t="s">
         <v>18</v>
@@ -11185,7 +11185,7 @@
         <v>349</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>41</v>
@@ -11202,7 +11202,7 @@
         <v>351</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>224</v>
@@ -11219,7 +11219,7 @@
         <v>351</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>224</v>
@@ -11236,7 +11236,7 @@
         <v>351</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C468" s="6" t="s">
         <v>18</v>
@@ -11253,7 +11253,7 @@
         <v>353</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C469" s="6" t="s">
         <v>16</v>
@@ -11270,7 +11270,7 @@
         <v>357</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C470" s="6" t="s">
         <v>16</v>
@@ -11287,7 +11287,7 @@
         <v>358</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C471" s="6" t="s">
         <v>18</v>
@@ -11304,7 +11304,7 @@
         <v>359</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C472" s="6" t="s">
         <v>16</v>
@@ -11321,7 +11321,7 @@
         <v>360</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C473" s="6" t="s">
         <v>18</v>
@@ -11338,7 +11338,7 @@
         <v>362</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C474" s="6" t="s">
         <v>26</v>
@@ -11355,7 +11355,7 @@
         <v>362</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C475" s="6" t="s">
         <v>283</v>
@@ -11372,7 +11372,7 @@
         <v>363</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>1</v>
@@ -11389,7 +11389,7 @@
         <v>364</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>1</v>
@@ -11406,7 +11406,7 @@
         <v>364</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>1</v>
@@ -11423,7 +11423,7 @@
         <v>364</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>1</v>
@@ -11440,7 +11440,7 @@
         <v>364</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>1</v>
@@ -11457,7 +11457,7 @@
         <v>364</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C481" s="6" t="s">
         <v>15</v>
@@ -11474,7 +11474,7 @@
         <v>364</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C482" s="6" t="s">
         <v>15</v>
@@ -11491,7 +11491,7 @@
         <v>364</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C483" s="6" t="s">
         <v>15</v>
@@ -11508,7 +11508,7 @@
         <v>364</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C484" s="6" t="s">
         <v>15</v>
@@ -11525,7 +11525,7 @@
         <v>364</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C485" s="6" t="s">
         <v>15</v>
@@ -11542,7 +11542,7 @@
         <v>364</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C486" s="6" t="s">
         <v>15</v>
@@ -11559,7 +11559,7 @@
         <v>364</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C487" s="6" t="s">
         <v>283</v>
@@ -11576,7 +11576,7 @@
         <v>365</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C488" s="6" t="s">
         <v>18</v>
@@ -11593,7 +11593,7 @@
         <v>365</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C489" s="6" t="s">
         <v>18</v>
@@ -11610,7 +11610,7 @@
         <v>365</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C490" s="6" t="s">
         <v>18</v>
@@ -11627,7 +11627,7 @@
         <v>365</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C491" s="6" t="s">
         <v>18</v>
@@ -11644,7 +11644,7 @@
         <v>365</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C492" s="6" t="s">
         <v>18</v>
@@ -11661,7 +11661,7 @@
         <v>365</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C493" s="6" t="s">
         <v>18</v>
@@ -11678,7 +11678,7 @@
         <v>365</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C494" s="4" t="s">
         <v>41</v>
@@ -11695,7 +11695,7 @@
         <v>365</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C495" s="6" t="s">
         <v>26</v>
@@ -11712,7 +11712,7 @@
         <v>365</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C496" s="6" t="s">
         <v>12</v>
@@ -11729,7 +11729,7 @@
         <v>365</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C497" s="6" t="s">
         <v>12</v>
@@ -11746,7 +11746,7 @@
         <v>365</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C498" s="6" t="s">
         <v>12</v>
@@ -11763,7 +11763,7 @@
         <v>367</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C499" s="6" t="s">
         <v>283</v>
@@ -11780,7 +11780,7 @@
         <v>368</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C500" s="6" t="s">
         <v>16</v>
@@ -11797,7 +11797,7 @@
         <v>369</v>
       </c>
       <c r="B501" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C501" s="4" t="s">
         <v>1</v>
@@ -11814,7 +11814,7 @@
         <v>369</v>
       </c>
       <c r="B502" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C502" s="4" t="s">
         <v>1</v>
@@ -11831,7 +11831,7 @@
         <v>369</v>
       </c>
       <c r="B503" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C503" s="4" t="s">
         <v>1</v>
@@ -11848,7 +11848,7 @@
         <v>369</v>
       </c>
       <c r="B504" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C504" s="4" t="s">
         <v>1</v>
@@ -11865,7 +11865,7 @@
         <v>369</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C505" s="4" t="s">
         <v>1</v>
@@ -11882,7 +11882,7 @@
         <v>369</v>
       </c>
       <c r="B506" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C506" s="6" t="s">
         <v>15</v>
@@ -11899,7 +11899,7 @@
         <v>369</v>
       </c>
       <c r="B507" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C507" s="6" t="s">
         <v>15</v>
@@ -11916,7 +11916,7 @@
         <v>369</v>
       </c>
       <c r="B508" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C508" s="6" t="s">
         <v>283</v>
@@ -11933,7 +11933,7 @@
         <v>369</v>
       </c>
       <c r="B509" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C509" s="6" t="s">
         <v>283</v>
@@ -11950,7 +11950,7 @@
         <v>370</v>
       </c>
       <c r="B510" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C510" s="6" t="s">
         <v>18</v>
@@ -11967,7 +11967,7 @@
         <v>371</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C511" s="6" t="s">
         <v>16</v>
@@ -11984,7 +11984,7 @@
         <v>372</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C512" s="4" t="s">
         <v>224</v>
@@ -12001,7 +12001,7 @@
         <v>372</v>
       </c>
       <c r="B513" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C513" s="6" t="s">
         <v>16</v>
@@ -12018,7 +12018,7 @@
         <v>372</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C514" s="6" t="s">
         <v>16</v>
@@ -12035,7 +12035,7 @@
         <v>375</v>
       </c>
       <c r="B515" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C515" s="6" t="s">
         <v>16</v>
@@ -12052,7 +12052,7 @@
         <v>376</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C516" s="4" t="s">
         <v>1</v>
@@ -12069,7 +12069,7 @@
         <v>376</v>
       </c>
       <c r="B517" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C517" s="4" t="s">
         <v>1</v>
@@ -12086,7 +12086,7 @@
         <v>376</v>
       </c>
       <c r="B518" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C518" s="6" t="s">
         <v>283</v>
@@ -12103,7 +12103,7 @@
         <v>377</v>
       </c>
       <c r="B519" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C519" s="6" t="s">
         <v>18</v>
@@ -12120,7 +12120,7 @@
         <v>377</v>
       </c>
       <c r="B520" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C520" s="6" t="s">
         <v>18</v>
@@ -12137,7 +12137,7 @@
         <v>377</v>
       </c>
       <c r="B521" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C521" s="6" t="s">
         <v>18</v>
@@ -12154,7 +12154,7 @@
         <v>377</v>
       </c>
       <c r="B522" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C522" s="6" t="s">
         <v>18</v>
@@ -12171,7 +12171,7 @@
         <v>377</v>
       </c>
       <c r="B523" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C523" s="6" t="s">
         <v>26</v>
@@ -12188,7 +12188,7 @@
         <v>377</v>
       </c>
       <c r="B524" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C524" s="6" t="s">
         <v>12</v>
@@ -12205,7 +12205,7 @@
         <v>378</v>
       </c>
       <c r="B525" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C525" s="4" t="s">
         <v>224</v>
@@ -12222,7 +12222,7 @@
         <v>379</v>
       </c>
       <c r="B526" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C526" s="6" t="s">
         <v>15</v>
@@ -12239,7 +12239,7 @@
         <v>380</v>
       </c>
       <c r="B527" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C527" s="6" t="s">
         <v>18</v>
@@ -12256,7 +12256,7 @@
         <v>380</v>
       </c>
       <c r="B528" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C528" s="6" t="s">
         <v>18</v>
@@ -12273,7 +12273,7 @@
         <v>381</v>
       </c>
       <c r="B529" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C529" s="6" t="s">
         <v>18</v>
@@ -12290,7 +12290,7 @@
         <v>382</v>
       </c>
       <c r="B530" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C530" s="6" t="s">
         <v>15</v>
@@ -12307,7 +12307,7 @@
         <v>382</v>
       </c>
       <c r="B531" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C531" s="6" t="s">
         <v>283</v>
@@ -12324,7 +12324,7 @@
         <v>383</v>
       </c>
       <c r="B532" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C532" s="4" t="s">
         <v>224</v>
@@ -12341,7 +12341,7 @@
         <v>383</v>
       </c>
       <c r="B533" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C533" s="6" t="s">
         <v>16</v>
@@ -12358,7 +12358,7 @@
         <v>383</v>
       </c>
       <c r="B534" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C534" s="6" t="s">
         <v>16</v>
@@ -12375,7 +12375,7 @@
         <v>383</v>
       </c>
       <c r="B535" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C535" s="6" t="s">
         <v>12</v>
@@ -12392,7 +12392,7 @@
         <v>384</v>
       </c>
       <c r="B536" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C536" s="4" t="s">
         <v>41</v>
@@ -12409,7 +12409,7 @@
         <v>385</v>
       </c>
       <c r="B537" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C537" s="6" t="s">
         <v>16</v>
@@ -12426,7 +12426,7 @@
         <v>385</v>
       </c>
       <c r="B538" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C538" s="6" t="s">
         <v>16</v>
@@ -12443,7 +12443,7 @@
         <v>385</v>
       </c>
       <c r="B539" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C539" s="6" t="s">
         <v>16</v>
@@ -12460,7 +12460,7 @@
         <v>385</v>
       </c>
       <c r="B540" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C540" s="6" t="s">
         <v>16</v>
@@ -12477,7 +12477,7 @@
         <v>386</v>
       </c>
       <c r="B541" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C541" s="6" t="s">
         <v>283</v>
@@ -12494,7 +12494,7 @@
         <v>387</v>
       </c>
       <c r="B542" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C542" s="6" t="s">
         <v>283</v>
@@ -12511,7 +12511,7 @@
         <v>388</v>
       </c>
       <c r="B543" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C543" s="6" t="s">
         <v>16</v>
@@ -12528,7 +12528,7 @@
         <v>388</v>
       </c>
       <c r="B544" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C544" s="6" t="s">
         <v>16</v>
@@ -12545,7 +12545,7 @@
         <v>388</v>
       </c>
       <c r="B545" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C545" s="6" t="s">
         <v>16</v>
@@ -12562,7 +12562,7 @@
         <v>388</v>
       </c>
       <c r="B546" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C546" s="6" t="s">
         <v>16</v>
@@ -12579,7 +12579,7 @@
         <v>388</v>
       </c>
       <c r="B547" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C547" s="6" t="s">
         <v>16</v>
@@ -12596,7 +12596,7 @@
         <v>388</v>
       </c>
       <c r="B548" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C548" s="6" t="s">
         <v>16</v>
@@ -12613,7 +12613,7 @@
         <v>388</v>
       </c>
       <c r="B549" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C549" s="6" t="s">
         <v>16</v>
@@ -12630,7 +12630,7 @@
         <v>388</v>
       </c>
       <c r="B550" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C550" s="6" t="s">
         <v>5</v>
@@ -12647,7 +12647,7 @@
         <v>388</v>
       </c>
       <c r="B551" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C551" s="6" t="s">
         <v>12</v>
@@ -12664,7 +12664,7 @@
         <v>388</v>
       </c>
       <c r="B552" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C552" s="6" t="s">
         <v>12</v>
@@ -12681,7 +12681,7 @@
         <v>388</v>
       </c>
       <c r="B553" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C553" s="6" t="s">
         <v>12</v>
@@ -12698,7 +12698,7 @@
         <v>390</v>
       </c>
       <c r="B554" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C554" s="6" t="s">
         <v>12</v>
@@ -12715,7 +12715,7 @@
         <v>391</v>
       </c>
       <c r="B555" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C555" s="4" t="s">
         <v>41</v>
@@ -12732,7 +12732,7 @@
         <v>392</v>
       </c>
       <c r="B556" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C556" s="6" t="s">
         <v>283</v>
@@ -12749,7 +12749,7 @@
         <v>393</v>
       </c>
       <c r="B557" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C557" s="6" t="s">
         <v>18</v>
@@ -12766,7 +12766,7 @@
         <v>393</v>
       </c>
       <c r="B558" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C558" s="6" t="s">
         <v>3</v>
@@ -12783,7 +12783,7 @@
         <v>393</v>
       </c>
       <c r="B559" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C559" s="6" t="s">
         <v>3</v>
@@ -12800,7 +12800,7 @@
         <v>393</v>
       </c>
       <c r="B560" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C560" s="6" t="s">
         <v>15</v>
@@ -12817,7 +12817,7 @@
         <v>393</v>
       </c>
       <c r="B561" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C561" s="6" t="s">
         <v>15</v>
@@ -12834,7 +12834,7 @@
         <v>394</v>
       </c>
       <c r="B562" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C562" s="4" t="s">
         <v>1</v>
@@ -12851,7 +12851,7 @@
         <v>394</v>
       </c>
       <c r="B563" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C563" s="4" t="s">
         <v>1</v>
@@ -12868,7 +12868,7 @@
         <v>394</v>
       </c>
       <c r="B564" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C564" s="6" t="s">
         <v>15</v>
@@ -12885,7 +12885,7 @@
         <v>394</v>
       </c>
       <c r="B565" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C565" s="6" t="s">
         <v>15</v>
@@ -12902,7 +12902,7 @@
         <v>395</v>
       </c>
       <c r="B566" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C566" s="6" t="s">
         <v>16</v>
@@ -12919,7 +12919,7 @@
         <v>396</v>
       </c>
       <c r="B567" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C567" s="4" t="s">
         <v>33</v>
@@ -12936,7 +12936,7 @@
         <v>396</v>
       </c>
       <c r="B568" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C568" s="6" t="s">
         <v>3</v>
@@ -12953,7 +12953,7 @@
         <v>397</v>
       </c>
       <c r="B569" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C569" s="6" t="s">
         <v>16</v>
@@ -12970,7 +12970,7 @@
         <v>398</v>
       </c>
       <c r="B570" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C570" s="6" t="s">
         <v>346</v>
@@ -12987,7 +12987,7 @@
         <v>399</v>
       </c>
       <c r="B571" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C571" s="6" t="s">
         <v>12</v>
@@ -13004,7 +13004,7 @@
         <v>400</v>
       </c>
       <c r="B572" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C572" s="4" t="s">
         <v>41</v>
@@ -13021,7 +13021,7 @@
         <v>400</v>
       </c>
       <c r="B573" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C573" s="4" t="s">
         <v>41</v>
@@ -13038,7 +13038,7 @@
         <v>402</v>
       </c>
       <c r="B574" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C574" s="6" t="s">
         <v>18</v>
@@ -13055,7 +13055,7 @@
         <v>403</v>
       </c>
       <c r="B575" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C575" s="4" t="s">
         <v>41</v>
@@ -13072,7 +13072,7 @@
         <v>403</v>
       </c>
       <c r="B576" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C576" s="4" t="s">
         <v>41</v>
@@ -13089,7 +13089,7 @@
         <v>403</v>
       </c>
       <c r="B577" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C577" s="6" t="s">
         <v>12</v>
@@ -13106,7 +13106,7 @@
         <v>403</v>
       </c>
       <c r="B578" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C578" s="6" t="s">
         <v>12</v>
@@ -13123,7 +13123,7 @@
         <v>404</v>
       </c>
       <c r="B579" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C579" s="4" t="s">
         <v>224</v>
@@ -13140,7 +13140,7 @@
         <v>404</v>
       </c>
       <c r="B580" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C580" s="4" t="s">
         <v>224</v>
@@ -13157,7 +13157,7 @@
         <v>404</v>
       </c>
       <c r="B581" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C581" s="4" t="s">
         <v>224</v>
@@ -13174,7 +13174,7 @@
         <v>405</v>
       </c>
       <c r="B582" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C582" s="6" t="s">
         <v>12</v>
@@ -13191,7 +13191,7 @@
         <v>406</v>
       </c>
       <c r="B583" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C583" s="4" t="s">
         <v>224</v>
@@ -13208,7 +13208,7 @@
         <v>406</v>
       </c>
       <c r="B584" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C584" s="4" t="s">
         <v>224</v>
@@ -13225,7 +13225,7 @@
         <v>406</v>
       </c>
       <c r="B585" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C585" s="4" t="s">
         <v>224</v>
@@ -13242,7 +13242,7 @@
         <v>406</v>
       </c>
       <c r="B586" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C586" s="4" t="s">
         <v>224</v>
@@ -13259,7 +13259,7 @@
         <v>406</v>
       </c>
       <c r="B587" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C587" s="6" t="s">
         <v>16</v>
@@ -13276,7 +13276,7 @@
         <v>407</v>
       </c>
       <c r="B588" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C588" s="6" t="s">
         <v>16</v>
@@ -13293,7 +13293,7 @@
         <v>407</v>
       </c>
       <c r="B589" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C589" s="6" t="s">
         <v>16</v>
@@ -13310,7 +13310,7 @@
         <v>407</v>
       </c>
       <c r="B590" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C590" s="6" t="s">
         <v>16</v>
@@ -13327,7 +13327,7 @@
         <v>407</v>
       </c>
       <c r="B591" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C591" s="6" t="s">
         <v>16</v>
@@ -13344,7 +13344,7 @@
         <v>407</v>
       </c>
       <c r="B592" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C592" s="6" t="s">
         <v>16</v>
@@ -13361,7 +13361,7 @@
         <v>407</v>
       </c>
       <c r="B593" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C593" s="6" t="s">
         <v>5</v>
@@ -13378,7 +13378,7 @@
         <v>407</v>
       </c>
       <c r="B594" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C594" s="6" t="s">
         <v>12</v>
@@ -13395,7 +13395,7 @@
         <v>408</v>
       </c>
       <c r="B595" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C595" s="6" t="s">
         <v>26</v>
@@ -13412,7 +13412,7 @@
         <v>408</v>
       </c>
       <c r="B596" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C596" s="6" t="s">
         <v>346</v>
@@ -13429,7 +13429,7 @@
         <v>409</v>
       </c>
       <c r="B597" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C597" s="4" t="s">
         <v>1</v>
@@ -13446,7 +13446,7 @@
         <v>409</v>
       </c>
       <c r="B598" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C598" s="6" t="s">
         <v>410</v>
@@ -13463,7 +13463,7 @@
         <v>409</v>
       </c>
       <c r="B599" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C599" s="6" t="s">
         <v>15</v>
@@ -13480,7 +13480,7 @@
         <v>409</v>
       </c>
       <c r="B600" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C600" s="6" t="s">
         <v>12</v>
@@ -13497,7 +13497,7 @@
         <v>409</v>
       </c>
       <c r="B601" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C601" s="6" t="s">
         <v>12</v>
@@ -13514,7 +13514,7 @@
         <v>412</v>
       </c>
       <c r="B602" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C602" s="6" t="s">
         <v>16</v>
@@ -13531,7 +13531,7 @@
         <v>412</v>
       </c>
       <c r="B603" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C603" s="6" t="s">
         <v>18</v>
@@ -13548,7 +13548,7 @@
         <v>412</v>
       </c>
       <c r="B604" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C604" s="4" t="s">
         <v>1</v>
@@ -13565,7 +13565,7 @@
         <v>412</v>
       </c>
       <c r="B605" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C605" s="4" t="s">
         <v>1</v>
@@ -13582,7 +13582,7 @@
         <v>412</v>
       </c>
       <c r="B606" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C606" s="4" t="s">
         <v>1</v>
@@ -13599,7 +13599,7 @@
         <v>412</v>
       </c>
       <c r="B607" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C607" s="6" t="s">
         <v>3</v>
@@ -13616,7 +13616,7 @@
         <v>412</v>
       </c>
       <c r="B608" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C608" s="6" t="s">
         <v>5</v>
@@ -13633,7 +13633,7 @@
         <v>412</v>
       </c>
       <c r="B609" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C609" s="6" t="s">
         <v>15</v>
@@ -13650,7 +13650,7 @@
         <v>413</v>
       </c>
       <c r="B610" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C610" s="4" t="s">
         <v>224</v>
@@ -13667,7 +13667,7 @@
         <v>414</v>
       </c>
       <c r="B611" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C611" s="4" t="s">
         <v>224</v>
@@ -13684,7 +13684,7 @@
         <v>414</v>
       </c>
       <c r="B612" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C612" s="6" t="s">
         <v>5</v>
@@ -13701,7 +13701,7 @@
         <v>415</v>
       </c>
       <c r="B613" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C613" s="6" t="s">
         <v>18</v>
@@ -13718,7 +13718,7 @@
         <v>415</v>
       </c>
       <c r="B614" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C614" s="6" t="s">
         <v>26</v>
@@ -13735,7 +13735,7 @@
         <v>415</v>
       </c>
       <c r="B615" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C615" s="6" t="s">
         <v>12</v>
@@ -13752,7 +13752,7 @@
         <v>416</v>
       </c>
       <c r="B616" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C616" s="6" t="s">
         <v>18</v>
@@ -13769,7 +13769,7 @@
         <v>416</v>
       </c>
       <c r="B617" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C617" s="6" t="s">
         <v>3</v>
@@ -13786,7 +13786,7 @@
         <v>417</v>
       </c>
       <c r="B618" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C618" s="6" t="s">
         <v>321</v>
@@ -13803,7 +13803,7 @@
         <v>418</v>
       </c>
       <c r="B619" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C619" s="6" t="s">
         <v>16</v>
@@ -13820,7 +13820,7 @@
         <v>418</v>
       </c>
       <c r="B620" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C620" s="6" t="s">
         <v>12</v>
@@ -13837,7 +13837,7 @@
         <v>418</v>
       </c>
       <c r="B621" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C621" s="6" t="s">
         <v>12</v>
@@ -13854,7 +13854,7 @@
         <v>418</v>
       </c>
       <c r="B622" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C622" s="6" t="s">
         <v>12</v>
@@ -13871,7 +13871,7 @@
         <v>419</v>
       </c>
       <c r="B623" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C623" s="6" t="s">
         <v>18</v>
@@ -13888,7 +13888,7 @@
         <v>420</v>
       </c>
       <c r="B624" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C624" s="6" t="s">
         <v>16</v>
@@ -13905,7 +13905,7 @@
         <v>420</v>
       </c>
       <c r="B625" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C625" s="6" t="s">
         <v>16</v>
@@ -13922,7 +13922,7 @@
         <v>420</v>
       </c>
       <c r="B626" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C626" s="6" t="s">
         <v>16</v>
@@ -13939,7 +13939,7 @@
         <v>422</v>
       </c>
       <c r="B627" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C627" s="4" t="s">
         <v>41</v>
@@ -13956,7 +13956,7 @@
         <v>423</v>
       </c>
       <c r="B628" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C628" s="6" t="s">
         <v>16</v>
@@ -13973,7 +13973,7 @@
         <v>423</v>
       </c>
       <c r="B629" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C629" s="6" t="s">
         <v>16</v>
@@ -13990,7 +13990,7 @@
         <v>423</v>
       </c>
       <c r="B630" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C630" s="6" t="s">
         <v>283</v>
@@ -14007,7 +14007,7 @@
         <v>424</v>
       </c>
       <c r="B631" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C631" s="6" t="s">
         <v>18</v>
@@ -14024,7 +14024,7 @@
         <v>425</v>
       </c>
       <c r="B632" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C632" s="4" t="s">
         <v>224</v>
@@ -14041,7 +14041,7 @@
         <v>425</v>
       </c>
       <c r="B633" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C633" s="4" t="s">
         <v>224</v>
@@ -14058,7 +14058,7 @@
         <v>425</v>
       </c>
       <c r="B634" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C634" s="4" t="s">
         <v>224</v>
@@ -14075,7 +14075,7 @@
         <v>425</v>
       </c>
       <c r="B635" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C635" s="4" t="s">
         <v>224</v>
@@ -14092,7 +14092,7 @@
         <v>425</v>
       </c>
       <c r="B636" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C636" s="4" t="s">
         <v>224</v>
@@ -14109,7 +14109,7 @@
         <v>425</v>
       </c>
       <c r="B637" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C637" s="4" t="s">
         <v>224</v>
@@ -14126,7 +14126,7 @@
         <v>425</v>
       </c>
       <c r="B638" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C638" s="4" t="s">
         <v>224</v>
@@ -14143,7 +14143,7 @@
         <v>425</v>
       </c>
       <c r="B639" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C639" s="4" t="s">
         <v>224</v>
@@ -14160,7 +14160,7 @@
         <v>425</v>
       </c>
       <c r="B640" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C640" s="4" t="s">
         <v>224</v>
@@ -14177,7 +14177,7 @@
         <v>425</v>
       </c>
       <c r="B641" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C641" s="6" t="s">
         <v>3</v>
@@ -14194,7 +14194,7 @@
         <v>426</v>
       </c>
       <c r="B642" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C642" s="6" t="s">
         <v>16</v>
@@ -14211,7 +14211,7 @@
         <v>426</v>
       </c>
       <c r="B643" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C643" s="6" t="s">
         <v>16</v>
@@ -14228,7 +14228,7 @@
         <v>426</v>
       </c>
       <c r="B644" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C644" s="6" t="s">
         <v>16</v>
@@ -14245,7 +14245,7 @@
         <v>426</v>
       </c>
       <c r="B645" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C645" s="6" t="s">
         <v>16</v>
@@ -14262,7 +14262,7 @@
         <v>426</v>
       </c>
       <c r="B646" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C646" s="6" t="s">
         <v>16</v>
@@ -14279,7 +14279,7 @@
         <v>426</v>
       </c>
       <c r="B647" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C647" s="6" t="s">
         <v>16</v>
@@ -14296,7 +14296,7 @@
         <v>426</v>
       </c>
       <c r="B648" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C648" s="6" t="s">
         <v>16</v>
@@ -14313,7 +14313,7 @@
         <v>426</v>
       </c>
       <c r="B649" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C649" s="4" t="s">
         <v>33</v>
@@ -14330,7 +14330,7 @@
         <v>426</v>
       </c>
       <c r="B650" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C650" s="6" t="s">
         <v>18</v>
@@ -14347,7 +14347,7 @@
         <v>426</v>
       </c>
       <c r="B651" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C651" s="4" t="s">
         <v>1</v>
@@ -14364,7 +14364,7 @@
         <v>426</v>
       </c>
       <c r="B652" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C652" s="6" t="s">
         <v>3</v>
@@ -14381,7 +14381,7 @@
         <v>426</v>
       </c>
       <c r="B653" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C653" s="6" t="s">
         <v>3</v>
@@ -14398,7 +14398,7 @@
         <v>426</v>
       </c>
       <c r="B654" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C654" s="6" t="s">
         <v>3</v>
@@ -14415,7 +14415,7 @@
         <v>426</v>
       </c>
       <c r="B655" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C655" s="6" t="s">
         <v>15</v>
@@ -14432,7 +14432,7 @@
         <v>426</v>
       </c>
       <c r="B656" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C656" s="6" t="s">
         <v>283</v>
@@ -14449,7 +14449,7 @@
         <v>426</v>
       </c>
       <c r="B657" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C657" s="6" t="s">
         <v>12</v>
@@ -14466,7 +14466,7 @@
         <v>426</v>
       </c>
       <c r="B658" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C658" s="6" t="s">
         <v>12</v>
@@ -14483,7 +14483,7 @@
         <v>427</v>
       </c>
       <c r="B659" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C659" s="6" t="s">
         <v>283</v>
@@ -14500,7 +14500,7 @@
         <v>428</v>
       </c>
       <c r="B660" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C660" s="6" t="s">
         <v>16</v>
@@ -14517,7 +14517,7 @@
         <v>429</v>
       </c>
       <c r="B661" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C661" s="4" t="s">
         <v>1</v>
@@ -14534,7 +14534,7 @@
         <v>430</v>
       </c>
       <c r="B662" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C662" s="6" t="s">
         <v>16</v>
@@ -14551,7 +14551,7 @@
         <v>430</v>
       </c>
       <c r="B663" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C663" s="6" t="s">
         <v>16</v>
@@ -14568,7 +14568,7 @@
         <v>430</v>
       </c>
       <c r="B664" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C664" s="6" t="s">
         <v>283</v>
@@ -14585,7 +14585,7 @@
         <v>431</v>
       </c>
       <c r="B665" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C665" s="6" t="s">
         <v>283</v>
@@ -14602,7 +14602,7 @@
         <v>432</v>
       </c>
       <c r="B666" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C666" s="4" t="s">
         <v>1</v>
@@ -14619,7 +14619,7 @@
         <v>433</v>
       </c>
       <c r="B667" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C667" s="6" t="s">
         <v>18</v>
@@ -14636,7 +14636,7 @@
         <v>434</v>
       </c>
       <c r="B668" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C668" s="4" t="s">
         <v>224</v>
@@ -14653,7 +14653,7 @@
         <v>435</v>
       </c>
       <c r="B669" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C669" s="6" t="s">
         <v>18</v>
@@ -14670,7 +14670,7 @@
         <v>436</v>
       </c>
       <c r="B670" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C670" s="6" t="s">
         <v>16</v>
@@ -14687,7 +14687,7 @@
         <v>437</v>
       </c>
       <c r="B671" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C671" s="6" t="s">
         <v>18</v>
@@ -14704,7 +14704,7 @@
         <v>437</v>
       </c>
       <c r="B672" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C672" s="6" t="s">
         <v>26</v>
@@ -14721,7 +14721,7 @@
         <v>438</v>
       </c>
       <c r="B673" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C673" s="6" t="s">
         <v>3</v>
@@ -14738,7 +14738,7 @@
         <v>438</v>
       </c>
       <c r="B674" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C674" s="6" t="s">
         <v>12</v>
@@ -14755,7 +14755,7 @@
         <v>439</v>
       </c>
       <c r="B675" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C675" s="4" t="s">
         <v>224</v>
@@ -14772,7 +14772,7 @@
         <v>439</v>
       </c>
       <c r="B676" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C676" s="4" t="s">
         <v>224</v>
@@ -14789,7 +14789,7 @@
         <v>439</v>
       </c>
       <c r="B677" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C677" s="4" t="s">
         <v>224</v>
@@ -14806,7 +14806,7 @@
         <v>439</v>
       </c>
       <c r="B678" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C678" s="4" t="s">
         <v>33</v>
@@ -14823,7 +14823,7 @@
         <v>439</v>
       </c>
       <c r="B679" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C679" s="6" t="s">
         <v>3</v>
@@ -14840,7 +14840,7 @@
         <v>440</v>
       </c>
       <c r="B680" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C680" s="6" t="s">
         <v>12</v>
@@ -14857,7 +14857,7 @@
         <v>440</v>
       </c>
       <c r="B681" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C681" s="6" t="s">
         <v>12</v>
@@ -14874,7 +14874,7 @@
         <v>441</v>
       </c>
       <c r="B682" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C682" s="4" t="s">
         <v>224</v>
@@ -14891,7 +14891,7 @@
         <v>441</v>
       </c>
       <c r="B683" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C683" s="4" t="s">
         <v>224</v>
@@ -14908,7 +14908,7 @@
         <v>442</v>
       </c>
       <c r="B684" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C684" s="6" t="s">
         <v>16</v>
@@ -14925,7 +14925,7 @@
         <v>442</v>
       </c>
       <c r="B685" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C685" s="6" t="s">
         <v>16</v>
@@ -14942,7 +14942,7 @@
         <v>442</v>
       </c>
       <c r="B686" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C686" s="6" t="s">
         <v>16</v>
@@ -14959,7 +14959,7 @@
         <v>442</v>
       </c>
       <c r="B687" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C687" s="6" t="s">
         <v>16</v>
@@ -14976,7 +14976,7 @@
         <v>442</v>
       </c>
       <c r="B688" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C688" s="6" t="s">
         <v>16</v>
@@ -14993,7 +14993,7 @@
         <v>442</v>
       </c>
       <c r="B689" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C689" s="6" t="s">
         <v>16</v>
@@ -15010,7 +15010,7 @@
         <v>442</v>
       </c>
       <c r="B690" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C690" s="6" t="s">
         <v>16</v>
@@ -15027,7 +15027,7 @@
         <v>442</v>
       </c>
       <c r="B691" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C691" s="6" t="s">
         <v>15</v>
@@ -15044,7 +15044,7 @@
         <v>442</v>
       </c>
       <c r="B692" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C692" s="6" t="s">
         <v>15</v>
@@ -15061,7 +15061,7 @@
         <v>443</v>
       </c>
       <c r="B693" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C693" s="6" t="s">
         <v>18</v>
@@ -15078,7 +15078,7 @@
         <v>443</v>
       </c>
       <c r="B694" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C694" s="6" t="s">
         <v>3</v>
@@ -15095,7 +15095,7 @@
         <v>443</v>
       </c>
       <c r="B695" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C695" s="6" t="s">
         <v>3</v>
@@ -15112,7 +15112,7 @@
         <v>443</v>
       </c>
       <c r="B696" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C696" s="6" t="s">
         <v>12</v>
@@ -15129,7 +15129,7 @@
         <v>443</v>
       </c>
       <c r="B697" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C697" s="6" t="s">
         <v>12</v>
@@ -15146,7 +15146,7 @@
         <v>444</v>
       </c>
       <c r="B698" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C698" s="6" t="s">
         <v>16</v>
@@ -15163,7 +15163,7 @@
         <v>444</v>
       </c>
       <c r="B699" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C699" s="4" t="s">
         <v>1</v>
@@ -15180,7 +15180,7 @@
         <v>444</v>
       </c>
       <c r="B700" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C700" s="4" t="s">
         <v>1</v>
@@ -15197,7 +15197,7 @@
         <v>444</v>
       </c>
       <c r="B701" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C701" s="4" t="s">
         <v>1</v>
@@ -15214,7 +15214,7 @@
         <v>444</v>
       </c>
       <c r="B702" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C702" s="4" t="s">
         <v>1</v>
@@ -15231,7 +15231,7 @@
         <v>444</v>
       </c>
       <c r="B703" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C703" s="4" t="s">
         <v>1</v>
@@ -15248,7 +15248,7 @@
         <v>444</v>
       </c>
       <c r="B704" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C704" s="4" t="s">
         <v>1</v>
@@ -15265,7 +15265,7 @@
         <v>444</v>
       </c>
       <c r="B705" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C705" s="6" t="s">
         <v>3</v>
@@ -15282,7 +15282,7 @@
         <v>444</v>
       </c>
       <c r="B706" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C706" s="6" t="s">
         <v>3</v>
@@ -15299,7 +15299,7 @@
         <v>444</v>
       </c>
       <c r="B707" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C707" s="6" t="s">
         <v>283</v>
@@ -15316,7 +15316,7 @@
         <v>445</v>
       </c>
       <c r="B708" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C708" s="4" t="s">
         <v>41</v>
@@ -15333,7 +15333,7 @@
         <v>446</v>
       </c>
       <c r="B709" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C709" s="6" t="s">
         <v>12</v>
@@ -15350,7 +15350,7 @@
         <v>446</v>
       </c>
       <c r="B710" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C710" s="6" t="s">
         <v>12</v>
@@ -15367,7 +15367,7 @@
         <v>447</v>
       </c>
       <c r="B711" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C711" s="6" t="s">
         <v>5</v>
@@ -15384,7 +15384,7 @@
         <v>447</v>
       </c>
       <c r="B712" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C712" s="6" t="s">
         <v>283</v>
@@ -15401,7 +15401,7 @@
         <v>448</v>
       </c>
       <c r="B713" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C713" s="6" t="s">
         <v>15</v>
@@ -15418,7 +15418,7 @@
         <v>449</v>
       </c>
       <c r="B714" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C714" s="4" t="s">
         <v>224</v>
@@ -15435,7 +15435,7 @@
         <v>450</v>
       </c>
       <c r="B715" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C715" s="6" t="s">
         <v>18</v>
@@ -15452,7 +15452,7 @@
         <v>450</v>
       </c>
       <c r="B716" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C716" s="6" t="s">
         <v>18</v>
@@ -15469,7 +15469,7 @@
         <v>450</v>
       </c>
       <c r="B717" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C717" s="6" t="s">
         <v>18</v>
@@ -15486,7 +15486,7 @@
         <v>451</v>
       </c>
       <c r="B718" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C718" s="6" t="s">
         <v>346</v>
@@ -15503,7 +15503,7 @@
         <v>452</v>
       </c>
       <c r="B719" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C719" s="6" t="s">
         <v>16</v>
@@ -15520,7 +15520,7 @@
         <v>452</v>
       </c>
       <c r="B720" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C720" s="6" t="s">
         <v>16</v>
@@ -15537,7 +15537,7 @@
         <v>452</v>
       </c>
       <c r="B721" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C721" s="4" t="s">
         <v>1</v>
@@ -15554,7 +15554,7 @@
         <v>452</v>
       </c>
       <c r="B722" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C722" s="4" t="s">
         <v>1</v>
@@ -15571,7 +15571,7 @@
         <v>452</v>
       </c>
       <c r="B723" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C723" s="6" t="s">
         <v>26</v>
@@ -15588,7 +15588,7 @@
         <v>453</v>
       </c>
       <c r="B724" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C724" s="4" t="s">
         <v>1</v>
@@ -15605,7 +15605,7 @@
         <v>454</v>
       </c>
       <c r="B725" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C725" s="4" t="s">
         <v>224</v>
@@ -15622,7 +15622,7 @@
         <v>454</v>
       </c>
       <c r="B726" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C726" s="4" t="s">
         <v>224</v>
@@ -15639,7 +15639,7 @@
         <v>454</v>
       </c>
       <c r="B727" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C727" s="4" t="s">
         <v>224</v>
@@ -15656,7 +15656,7 @@
         <v>455</v>
       </c>
       <c r="B728" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C728" s="6" t="s">
         <v>283</v>
@@ -15673,7 +15673,7 @@
         <v>455</v>
       </c>
       <c r="B729" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C729" s="6" t="s">
         <v>283</v>
@@ -15690,7 +15690,7 @@
         <v>456</v>
       </c>
       <c r="B730" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C730" s="6" t="s">
         <v>18</v>
@@ -15707,7 +15707,7 @@
         <v>456</v>
       </c>
       <c r="B731" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C731" s="6" t="s">
         <v>18</v>
@@ -15724,7 +15724,7 @@
         <v>456</v>
       </c>
       <c r="B732" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C732" s="6" t="s">
         <v>18</v>
@@ -15741,7 +15741,7 @@
         <v>456</v>
       </c>
       <c r="B733" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C733" s="6" t="s">
         <v>18</v>
@@ -15758,7 +15758,7 @@
         <v>456</v>
       </c>
       <c r="B734" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C734" s="4" t="s">
         <v>41</v>
@@ -15775,7 +15775,7 @@
         <v>456</v>
       </c>
       <c r="B735" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C735" s="6" t="s">
         <v>3</v>
@@ -15792,7 +15792,7 @@
         <v>456</v>
       </c>
       <c r="B736" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C736" s="6" t="s">
         <v>12</v>
@@ -15809,7 +15809,7 @@
         <v>457</v>
       </c>
       <c r="B737" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C737" s="4" t="s">
         <v>41</v>
@@ -15826,7 +15826,7 @@
         <v>457</v>
       </c>
       <c r="B738" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C738" s="6" t="s">
         <v>26</v>
@@ -15843,7 +15843,7 @@
         <v>457</v>
       </c>
       <c r="B739" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C739" s="6" t="s">
         <v>3</v>
@@ -15860,7 +15860,7 @@
         <v>458</v>
       </c>
       <c r="B740" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C740" s="6" t="s">
         <v>16</v>
@@ -15877,7 +15877,7 @@
         <v>459</v>
       </c>
       <c r="B741" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C741" s="4" t="s">
         <v>224</v>
@@ -15894,7 +15894,7 @@
         <v>459</v>
       </c>
       <c r="B742" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C742" s="6" t="s">
         <v>16</v>
@@ -15911,7 +15911,7 @@
         <v>460</v>
       </c>
       <c r="B743" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C743" s="4" t="s">
         <v>41</v>
@@ -15928,7 +15928,7 @@
         <v>460</v>
       </c>
       <c r="B744" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C744" s="4" t="s">
         <v>1</v>
@@ -15945,7 +15945,7 @@
         <v>461</v>
       </c>
       <c r="B745" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C745" s="4" t="s">
         <v>33</v>
@@ -15962,7 +15962,7 @@
         <v>462</v>
       </c>
       <c r="B746" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C746" s="6" t="s">
         <v>16</v>
@@ -15979,7 +15979,7 @@
         <v>462</v>
       </c>
       <c r="B747" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C747" s="6" t="s">
         <v>16</v>
@@ -15996,7 +15996,7 @@
         <v>462</v>
       </c>
       <c r="B748" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C748" s="6" t="s">
         <v>16</v>
@@ -16013,7 +16013,7 @@
         <v>463</v>
       </c>
       <c r="B749" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C749" s="4" t="s">
         <v>1</v>
@@ -16030,7 +16030,7 @@
         <v>463</v>
       </c>
       <c r="B750" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C750" s="6" t="s">
         <v>283</v>
@@ -16047,7 +16047,7 @@
         <v>464</v>
       </c>
       <c r="B751" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C751" s="6" t="s">
         <v>12</v>
@@ -16064,7 +16064,7 @@
         <v>465</v>
       </c>
       <c r="B752" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C752" s="4" t="s">
         <v>1</v>
@@ -16081,7 +16081,7 @@
         <v>466</v>
       </c>
       <c r="B753" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C753" s="4" t="s">
         <v>41</v>
@@ -16098,7 +16098,7 @@
         <v>467</v>
       </c>
       <c r="B754" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C754" s="6" t="s">
         <v>283</v>
@@ -16115,7 +16115,7 @@
         <v>467</v>
       </c>
       <c r="B755" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C755" s="6" t="s">
         <v>283</v>
@@ -16132,7 +16132,7 @@
         <v>468</v>
       </c>
       <c r="B756" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C756" s="6" t="s">
         <v>3</v>
@@ -16149,7 +16149,7 @@
         <v>469</v>
       </c>
       <c r="B757" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C757" s="4" t="s">
         <v>41</v>
@@ -16166,7 +16166,7 @@
         <v>469</v>
       </c>
       <c r="B758" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C758" s="4" t="s">
         <v>1</v>
@@ -16183,7 +16183,7 @@
         <v>470</v>
       </c>
       <c r="B759" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C759" s="6" t="s">
         <v>18</v>
@@ -16200,7 +16200,7 @@
         <v>470</v>
       </c>
       <c r="B760" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C760" s="6" t="s">
         <v>18</v>
@@ -16217,7 +16217,7 @@
         <v>471</v>
       </c>
       <c r="B761" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C761" s="6" t="s">
         <v>15</v>
@@ -16234,7 +16234,7 @@
         <v>472</v>
       </c>
       <c r="B762" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C762" s="6" t="s">
         <v>16</v>
@@ -16251,7 +16251,7 @@
         <v>473</v>
       </c>
       <c r="B763" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C763" s="6" t="s">
         <v>3</v>
@@ -16268,7 +16268,7 @@
         <v>473</v>
       </c>
       <c r="B764" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C764" s="6" t="s">
         <v>12</v>
@@ -16285,7 +16285,7 @@
         <v>474</v>
       </c>
       <c r="B765" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C765" s="4" t="s">
         <v>41</v>
@@ -16302,7 +16302,7 @@
         <v>475</v>
       </c>
       <c r="B766" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C766" s="6" t="s">
         <v>18</v>
@@ -16319,7 +16319,7 @@
         <v>475</v>
       </c>
       <c r="B767" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C767" s="4" t="s">
         <v>1</v>
@@ -16336,7 +16336,7 @@
         <v>476</v>
       </c>
       <c r="B768" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C768" s="6" t="s">
         <v>26</v>
@@ -16353,7 +16353,7 @@
         <v>477</v>
       </c>
       <c r="B769" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C769" s="6" t="s">
         <v>410</v>
@@ -16370,7 +16370,7 @@
         <v>477</v>
       </c>
       <c r="B770" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C770" s="6" t="s">
         <v>321</v>
@@ -16387,7 +16387,7 @@
         <v>477</v>
       </c>
       <c r="B771" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C771" s="6" t="s">
         <v>12</v>
@@ -16404,7 +16404,7 @@
         <v>477</v>
       </c>
       <c r="B772" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C772" s="6" t="s">
         <v>12</v>
@@ -16421,7 +16421,7 @@
         <v>478</v>
       </c>
       <c r="B773" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C773" s="6" t="s">
         <v>26</v>
@@ -16438,7 +16438,7 @@
         <v>479</v>
       </c>
       <c r="B774" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C774" s="4" t="s">
         <v>41</v>
@@ -16455,7 +16455,7 @@
         <v>479</v>
       </c>
       <c r="B775" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C775" s="4" t="s">
         <v>41</v>
@@ -16472,7 +16472,7 @@
         <v>480</v>
       </c>
       <c r="B776" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C776" s="6" t="s">
         <v>18</v>
@@ -16489,7 +16489,7 @@
         <v>481</v>
       </c>
       <c r="B777" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C777" s="4" t="s">
         <v>224</v>
@@ -16506,7 +16506,7 @@
         <v>481</v>
       </c>
       <c r="B778" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C778" s="4" t="s">
         <v>224</v>
@@ -16523,7 +16523,7 @@
         <v>481</v>
       </c>
       <c r="B779" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C779" s="4" t="s">
         <v>224</v>
@@ -16540,7 +16540,7 @@
         <v>482</v>
       </c>
       <c r="B780" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C780" s="4" t="s">
         <v>33</v>
@@ -16557,7 +16557,7 @@
         <v>482</v>
       </c>
       <c r="B781" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C781" s="4" t="s">
         <v>41</v>
@@ -16574,7 +16574,7 @@
         <v>482</v>
       </c>
       <c r="B782" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C782" s="4" t="s">
         <v>1</v>
@@ -16591,7 +16591,7 @@
         <v>482</v>
       </c>
       <c r="B783" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C783" s="4" t="s">
         <v>1</v>
@@ -16608,7 +16608,7 @@
         <v>482</v>
       </c>
       <c r="B784" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C784" s="6" t="s">
         <v>3</v>
@@ -16625,7 +16625,7 @@
         <v>482</v>
       </c>
       <c r="B785" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C785" s="6" t="s">
         <v>3</v>
@@ -16642,7 +16642,7 @@
         <v>482</v>
       </c>
       <c r="B786" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C786" s="6" t="s">
         <v>5</v>
@@ -16659,7 +16659,7 @@
         <v>482</v>
       </c>
       <c r="B787" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C787" s="6" t="s">
         <v>15</v>
@@ -16676,7 +16676,7 @@
         <v>482</v>
       </c>
       <c r="B788" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C788" s="6" t="s">
         <v>12</v>
@@ -16693,7 +16693,7 @@
         <v>482</v>
       </c>
       <c r="B789" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C789" s="6" t="s">
         <v>12</v>
@@ -16710,7 +16710,7 @@
         <v>483</v>
       </c>
       <c r="B790" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C790" s="4" t="s">
         <v>41</v>
@@ -16727,7 +16727,7 @@
         <v>483</v>
       </c>
       <c r="B791" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C791" s="4" t="s">
         <v>41</v>
@@ -16744,7 +16744,7 @@
         <v>484</v>
       </c>
       <c r="B792" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C792" s="6" t="s">
         <v>18</v>
@@ -16761,7 +16761,7 @@
         <v>485</v>
       </c>
       <c r="B793" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C793" s="6" t="s">
         <v>321</v>
@@ -16778,7 +16778,7 @@
         <v>485</v>
       </c>
       <c r="B794" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C794" s="6" t="s">
         <v>12</v>
@@ -16795,7 +16795,7 @@
         <v>486</v>
       </c>
       <c r="B795" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C795" s="4" t="s">
         <v>1</v>
@@ -16812,7 +16812,7 @@
         <v>487</v>
       </c>
       <c r="B796" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C796" s="4" t="s">
         <v>1</v>
@@ -16829,7 +16829,7 @@
         <v>487</v>
       </c>
       <c r="B797" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C797" s="4" t="s">
         <v>1</v>
@@ -16846,7 +16846,7 @@
         <v>487</v>
       </c>
       <c r="B798" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C798" s="6" t="s">
         <v>283</v>
@@ -16863,7 +16863,7 @@
         <v>488</v>
       </c>
       <c r="B799" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C799" s="4" t="s">
         <v>224</v>
@@ -16880,7 +16880,7 @@
         <v>488</v>
       </c>
       <c r="B800" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C800" s="6" t="s">
         <v>18</v>
@@ -16897,7 +16897,7 @@
         <v>488</v>
       </c>
       <c r="B801" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C801" s="6" t="s">
         <v>18</v>
@@ -16914,7 +16914,7 @@
         <v>488</v>
       </c>
       <c r="B802" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C802" s="6" t="s">
         <v>5</v>
@@ -16931,7 +16931,7 @@
         <v>489</v>
       </c>
       <c r="B803" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C803" s="6" t="s">
         <v>283</v>
@@ -16948,7 +16948,7 @@
         <v>490</v>
       </c>
       <c r="B804" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C804" s="6" t="s">
         <v>5</v>
@@ -16965,7 +16965,7 @@
         <v>491</v>
       </c>
       <c r="B805" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C805" s="6" t="s">
         <v>283</v>
@@ -16982,7 +16982,7 @@
         <v>492</v>
       </c>
       <c r="B806" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C806" s="6" t="s">
         <v>410</v>
@@ -16999,7 +16999,7 @@
         <v>493</v>
       </c>
       <c r="B807" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C807" s="6" t="s">
         <v>18</v>
@@ -17016,7 +17016,7 @@
         <v>493</v>
       </c>
       <c r="B808" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C808" s="4" t="s">
         <v>41</v>
@@ -17033,7 +17033,7 @@
         <v>494</v>
       </c>
       <c r="B809" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C809" s="6" t="s">
         <v>16</v>
@@ -17050,7 +17050,7 @@
         <v>494</v>
       </c>
       <c r="B810" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C810" s="6" t="s">
         <v>18</v>
@@ -17067,7 +17067,7 @@
         <v>494</v>
       </c>
       <c r="B811" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C811" s="6" t="s">
         <v>18</v>
@@ -17084,7 +17084,7 @@
         <v>494</v>
       </c>
       <c r="B812" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C812" s="4" t="s">
         <v>41</v>
@@ -17101,7 +17101,7 @@
         <v>494</v>
       </c>
       <c r="B813" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C813" s="4" t="s">
         <v>1</v>
@@ -17118,7 +17118,7 @@
         <v>494</v>
       </c>
       <c r="B814" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C814" s="4" t="s">
         <v>1</v>
@@ -17135,7 +17135,7 @@
         <v>494</v>
       </c>
       <c r="B815" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C815" s="4" t="s">
         <v>1</v>
@@ -17152,7 +17152,7 @@
         <v>494</v>
       </c>
       <c r="B816" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C816" s="6" t="s">
         <v>15</v>
@@ -17169,7 +17169,7 @@
         <v>494</v>
       </c>
       <c r="B817" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C817" s="6" t="s">
         <v>15</v>
@@ -17186,7 +17186,7 @@
         <v>495</v>
       </c>
       <c r="B818" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C818" s="4" t="s">
         <v>1</v>
@@ -17203,7 +17203,7 @@
         <v>496</v>
       </c>
       <c r="B819" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C819" s="6" t="s">
         <v>18</v>
@@ -17220,7 +17220,7 @@
         <v>496</v>
       </c>
       <c r="B820" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C820" s="6" t="s">
         <v>18</v>
@@ -17237,7 +17237,7 @@
         <v>497</v>
       </c>
       <c r="B821" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C821" s="6" t="s">
         <v>16</v>
@@ -17254,7 +17254,7 @@
         <v>497</v>
       </c>
       <c r="B822" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C822" s="6" t="s">
         <v>16</v>
@@ -17271,7 +17271,7 @@
         <v>497</v>
       </c>
       <c r="B823" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C823" s="6" t="s">
         <v>16</v>
@@ -17288,7 +17288,7 @@
         <v>497</v>
       </c>
       <c r="B824" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C824" s="6" t="s">
         <v>16</v>
@@ -17305,7 +17305,7 @@
         <v>497</v>
       </c>
       <c r="B825" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C825" s="6" t="s">
         <v>16</v>
@@ -17322,7 +17322,7 @@
         <v>497</v>
       </c>
       <c r="B826" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C826" s="6" t="s">
         <v>16</v>
@@ -17339,7 +17339,7 @@
         <v>498</v>
       </c>
       <c r="B827" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C827" s="4" t="s">
         <v>1</v>
@@ -17356,7 +17356,7 @@
         <v>498</v>
       </c>
       <c r="B828" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C828" s="6" t="s">
         <v>410</v>
@@ -17373,7 +17373,7 @@
         <v>499</v>
       </c>
       <c r="B829" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C829" s="6" t="s">
         <v>18</v>
@@ -17390,7 +17390,7 @@
         <v>499</v>
       </c>
       <c r="B830" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C830" s="6" t="s">
         <v>26</v>
@@ -17407,7 +17407,7 @@
         <v>499</v>
       </c>
       <c r="B831" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C831" s="6" t="s">
         <v>346</v>
@@ -17424,7 +17424,7 @@
         <v>500</v>
       </c>
       <c r="B832" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C832" s="4" t="s">
         <v>1</v>
@@ -17441,7 +17441,7 @@
         <v>501</v>
       </c>
       <c r="B833" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C833" s="4" t="s">
         <v>41</v>
@@ -17458,7 +17458,7 @@
         <v>502</v>
       </c>
       <c r="B834" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C834" s="6" t="s">
         <v>12</v>
@@ -17475,7 +17475,7 @@
         <v>503</v>
       </c>
       <c r="B835" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C835" s="6" t="s">
         <v>18</v>
@@ -17492,7 +17492,7 @@
         <v>504</v>
       </c>
       <c r="B836" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C836" s="6" t="s">
         <v>18</v>
@@ -17509,7 +17509,7 @@
         <v>504</v>
       </c>
       <c r="B837" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C837" s="6" t="s">
         <v>18</v>
@@ -17526,7 +17526,7 @@
         <v>504</v>
       </c>
       <c r="B838" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C838" s="6" t="s">
         <v>18</v>
@@ -17543,7 +17543,7 @@
         <v>504</v>
       </c>
       <c r="B839" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C839" s="6" t="s">
         <v>18</v>
@@ -17560,7 +17560,7 @@
         <v>504</v>
       </c>
       <c r="B840" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C840" s="6" t="s">
         <v>18</v>
@@ -17577,7 +17577,7 @@
         <v>504</v>
       </c>
       <c r="B841" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C841" s="4" t="s">
         <v>1</v>
@@ -17594,7 +17594,7 @@
         <v>504</v>
       </c>
       <c r="B842" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C842" s="4" t="s">
         <v>1</v>
@@ -17611,7 +17611,7 @@
         <v>505</v>
       </c>
       <c r="B843" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C843" s="6" t="s">
         <v>18</v>
@@ -17628,7 +17628,7 @@
         <v>505</v>
       </c>
       <c r="B844" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C844" s="6" t="s">
         <v>18</v>
@@ -17645,7 +17645,7 @@
         <v>506</v>
       </c>
       <c r="B845" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C845" s="4" t="s">
         <v>224</v>
@@ -17662,7 +17662,7 @@
         <v>507</v>
       </c>
       <c r="B846" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C846" s="4" t="s">
         <v>1</v>
@@ -17679,7 +17679,7 @@
         <v>508</v>
       </c>
       <c r="B847" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C847" s="6" t="s">
         <v>16</v>
@@ -17696,7 +17696,7 @@
         <v>509</v>
       </c>
       <c r="B848" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C848" s="6" t="s">
         <v>16</v>
@@ -17713,7 +17713,7 @@
         <v>510</v>
       </c>
       <c r="B849" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C849" s="6" t="s">
         <v>16</v>
@@ -17730,7 +17730,7 @@
         <v>510</v>
       </c>
       <c r="B850" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C850" s="6" t="s">
         <v>16</v>
@@ -17747,7 +17747,7 @@
         <v>511</v>
       </c>
       <c r="B851" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C851" s="4" t="s">
         <v>1</v>
@@ -17764,7 +17764,7 @@
         <v>511</v>
       </c>
       <c r="B852" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C852" s="4" t="s">
         <v>1</v>
@@ -17781,7 +17781,7 @@
         <v>511</v>
       </c>
       <c r="B853" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C853" s="4" t="s">
         <v>1</v>
@@ -17798,7 +17798,7 @@
         <v>511</v>
       </c>
       <c r="B854" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C854" s="6" t="s">
         <v>15</v>
@@ -17815,7 +17815,7 @@
         <v>512</v>
       </c>
       <c r="B855" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C855" s="6" t="s">
         <v>410</v>
@@ -17832,7 +17832,7 @@
         <v>513</v>
       </c>
       <c r="B856" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C856" s="6" t="s">
         <v>18</v>
@@ -17849,7 +17849,7 @@
         <v>513</v>
       </c>
       <c r="B857" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C857" s="6" t="s">
         <v>12</v>
@@ -17866,7 +17866,7 @@
         <v>513</v>
       </c>
       <c r="B858" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C858" s="6" t="s">
         <v>12</v>
@@ -17883,7 +17883,7 @@
         <v>514</v>
       </c>
       <c r="B859" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C859" s="6" t="s">
         <v>18</v>
@@ -17900,7 +17900,7 @@
         <v>515</v>
       </c>
       <c r="B860" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C860" s="6" t="s">
         <v>18</v>
@@ -17917,7 +17917,7 @@
         <v>515</v>
       </c>
       <c r="B861" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C861" s="6" t="s">
         <v>283</v>
@@ -17934,7 +17934,7 @@
         <v>516</v>
       </c>
       <c r="B862" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C862" s="4" t="s">
         <v>224</v>
@@ -17951,7 +17951,7 @@
         <v>517</v>
       </c>
       <c r="B863" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C863" s="6" t="s">
         <v>26</v>
@@ -17968,7 +17968,7 @@
         <v>518</v>
       </c>
       <c r="B864" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C864" s="6" t="s">
         <v>18</v>
@@ -17985,7 +17985,7 @@
         <v>519</v>
       </c>
       <c r="B865" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C865" s="4" t="s">
         <v>224</v>
@@ -18002,7 +18002,7 @@
         <v>519</v>
       </c>
       <c r="B866" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C866" s="4" t="s">
         <v>1</v>
@@ -18019,7 +18019,7 @@
         <v>520</v>
       </c>
       <c r="B867" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C867" s="6" t="s">
         <v>18</v>
@@ -18036,7 +18036,7 @@
         <v>521</v>
       </c>
       <c r="B868" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C868" s="4" t="s">
         <v>1</v>
@@ -18053,7 +18053,7 @@
         <v>522</v>
       </c>
       <c r="B869" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C869" s="6" t="s">
         <v>15</v>
@@ -18070,7 +18070,7 @@
         <v>523</v>
       </c>
       <c r="B870" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C870" s="4" t="s">
         <v>1</v>
@@ -18087,7 +18087,7 @@
         <v>524</v>
       </c>
       <c r="B871" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C871" s="4" t="s">
         <v>41</v>
@@ -18104,7 +18104,7 @@
         <v>524</v>
       </c>
       <c r="B872" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C872" s="6" t="s">
         <v>321</v>
@@ -18121,7 +18121,7 @@
         <v>524</v>
       </c>
       <c r="B873" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C873" s="6" t="s">
         <v>12</v>
@@ -18138,7 +18138,7 @@
         <v>524</v>
       </c>
       <c r="B874" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C874" s="6" t="s">
         <v>12</v>
@@ -18155,7 +18155,7 @@
         <v>524</v>
       </c>
       <c r="B875" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C875" s="6" t="s">
         <v>12</v>
@@ -18172,7 +18172,7 @@
         <v>654</v>
       </c>
       <c r="B876" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C876" s="13" t="s">
         <v>255</v>
@@ -18189,7 +18189,7 @@
         <v>655</v>
       </c>
       <c r="B877" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C877" s="13" t="s">
         <v>255</v>
@@ -18206,7 +18206,7 @@
         <v>239</v>
       </c>
       <c r="B878" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C878" s="13" t="s">
         <v>255</v>
@@ -18223,7 +18223,7 @@
         <v>643</v>
       </c>
       <c r="B879" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C879" s="13" t="s">
         <v>255</v>
@@ -18240,7 +18240,7 @@
         <v>643</v>
       </c>
       <c r="B880" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C880" s="13" t="s">
         <v>255</v>
@@ -18257,7 +18257,7 @@
         <v>656</v>
       </c>
       <c r="B881" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C881" s="13" t="s">
         <v>255</v>
@@ -18274,7 +18274,7 @@
         <v>114</v>
       </c>
       <c r="B882" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C882" s="13" t="s">
         <v>255</v>
@@ -18291,7 +18291,7 @@
         <v>645</v>
       </c>
       <c r="B883" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C883" s="13" t="s">
         <v>255</v>
@@ -18308,7 +18308,7 @@
         <v>657</v>
       </c>
       <c r="B884" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C884" s="13" t="s">
         <v>255</v>
@@ -18325,7 +18325,7 @@
         <v>658</v>
       </c>
       <c r="B885" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C885" s="13" t="s">
         <v>209</v>
@@ -18342,7 +18342,7 @@
         <v>659</v>
       </c>
       <c r="B886" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C886" s="13" t="s">
         <v>209</v>
@@ -18359,7 +18359,7 @@
         <v>660</v>
       </c>
       <c r="B887" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C887" s="13" t="s">
         <v>209</v>
@@ -18376,7 +18376,7 @@
         <v>149</v>
       </c>
       <c r="B888" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C888" s="13" t="s">
         <v>209</v>
@@ -18393,7 +18393,7 @@
         <v>661</v>
       </c>
       <c r="B889" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C889" s="13" t="s">
         <v>256</v>
@@ -18410,7 +18410,7 @@
         <v>662</v>
       </c>
       <c r="B890" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C890" s="13" t="s">
         <v>256</v>
@@ -18427,7 +18427,7 @@
         <v>663</v>
       </c>
       <c r="B891" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C891" s="13" t="s">
         <v>256</v>
@@ -18444,7 +18444,7 @@
         <v>664</v>
       </c>
       <c r="B892" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C892" s="13" t="s">
         <v>256</v>
@@ -18461,7 +18461,7 @@
         <v>665</v>
       </c>
       <c r="B893" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C893" s="13" t="s">
         <v>256</v>
@@ -18478,7 +18478,7 @@
         <v>666</v>
       </c>
       <c r="B894" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C894" s="13" t="s">
         <v>224</v>
@@ -18495,7 +18495,7 @@
         <v>667</v>
       </c>
       <c r="B895" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C895" s="13" t="s">
         <v>224</v>
@@ -18512,7 +18512,7 @@
         <v>668</v>
       </c>
       <c r="B896" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C896" s="13" t="s">
         <v>224</v>
@@ -18529,7 +18529,7 @@
         <v>669</v>
       </c>
       <c r="B897" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C897" s="13" t="s">
         <v>224</v>
@@ -18546,7 +18546,7 @@
         <v>670</v>
       </c>
       <c r="B898" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C898" s="13" t="s">
         <v>224</v>
@@ -18563,7 +18563,7 @@
         <v>671</v>
       </c>
       <c r="B899" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C899" s="13" t="s">
         <v>188</v>
@@ -18580,7 +18580,7 @@
         <v>672</v>
       </c>
       <c r="B900" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C900" s="13" t="s">
         <v>188</v>
@@ -18597,7 +18597,7 @@
         <v>673</v>
       </c>
       <c r="B901" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C901" s="13" t="s">
         <v>188</v>
@@ -18614,7 +18614,7 @@
         <v>674</v>
       </c>
       <c r="B902" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C902" s="13" t="s">
         <v>188</v>
@@ -18631,7 +18631,7 @@
         <v>661</v>
       </c>
       <c r="B903" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C903" s="13" t="s">
         <v>258</v>
@@ -18648,7 +18648,7 @@
         <v>658</v>
       </c>
       <c r="B904" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C904" s="13" t="s">
         <v>258</v>
@@ -18665,7 +18665,7 @@
         <v>675</v>
       </c>
       <c r="B905" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C905" s="13" t="s">
         <v>258</v>
@@ -18682,7 +18682,7 @@
         <v>650</v>
       </c>
       <c r="B906" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C906" s="13" t="s">
         <v>258</v>
@@ -18699,7 +18699,7 @@
         <v>651</v>
       </c>
       <c r="B907" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C907" s="13" t="s">
         <v>258</v>
@@ -18716,7 +18716,7 @@
         <v>676</v>
       </c>
       <c r="B908" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C908" s="13" t="s">
         <v>256</v>
@@ -18733,7 +18733,7 @@
         <v>677</v>
       </c>
       <c r="B909" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C909" s="13" t="s">
         <v>256</v>
@@ -18750,7 +18750,7 @@
         <v>678</v>
       </c>
       <c r="B910" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C910" s="13" t="s">
         <v>256</v>
@@ -18767,7 +18767,7 @@
         <v>679</v>
       </c>
       <c r="B911" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C911" s="13" t="s">
         <v>256</v>
@@ -18784,7 +18784,7 @@
         <v>680</v>
       </c>
       <c r="B912" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C912" s="13" t="s">
         <v>258</v>
@@ -18801,7 +18801,7 @@
         <v>668</v>
       </c>
       <c r="B913" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C913" s="13" t="s">
         <v>258</v>
@@ -18818,7 +18818,7 @@
         <v>0</v>
       </c>
       <c r="B914" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C914" s="13" t="s">
         <v>258</v>
@@ -18835,7 +18835,7 @@
         <v>660</v>
       </c>
       <c r="B915" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C915" s="13" t="s">
         <v>258</v>
@@ -18852,7 +18852,7 @@
         <v>681</v>
       </c>
       <c r="B916" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C916" s="13" t="s">
         <v>258</v>
@@ -18869,7 +18869,7 @@
         <v>682</v>
       </c>
       <c r="B917" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C917" s="13" t="s">
         <v>721</v>
@@ -18886,7 +18886,7 @@
         <v>676</v>
       </c>
       <c r="B918" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C918" s="13" t="s">
         <v>721</v>
@@ -18903,7 +18903,7 @@
         <v>683</v>
       </c>
       <c r="B919" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C919" s="13" t="s">
         <v>721</v>
@@ -18920,7 +18920,7 @@
         <v>215</v>
       </c>
       <c r="B920" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C920" s="13" t="s">
         <v>721</v>
@@ -18937,7 +18937,7 @@
         <v>684</v>
       </c>
       <c r="B921" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C921" s="13" t="s">
         <v>722</v>
@@ -18954,7 +18954,7 @@
         <v>647</v>
       </c>
       <c r="B922" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C922" s="13" t="s">
         <v>722</v>
@@ -18971,7 +18971,7 @@
         <v>685</v>
       </c>
       <c r="B923" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C923" s="13" t="s">
         <v>722</v>
@@ -18988,7 +18988,7 @@
         <v>686</v>
       </c>
       <c r="B924" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C924" s="13" t="s">
         <v>722</v>
@@ -19005,7 +19005,7 @@
         <v>657</v>
       </c>
       <c r="B925" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C925" s="13" t="s">
         <v>723</v>
@@ -19022,7 +19022,7 @@
         <v>683</v>
       </c>
       <c r="B926" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C926" s="13" t="s">
         <v>723</v>
@@ -19039,7 +19039,7 @@
         <v>687</v>
       </c>
       <c r="B927" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C927" s="13" t="s">
         <v>258</v>
@@ -19056,7 +19056,7 @@
         <v>688</v>
       </c>
       <c r="B928" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C928" s="13" t="s">
         <v>258</v>
@@ -19073,7 +19073,7 @@
         <v>689</v>
       </c>
       <c r="B929" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C929" s="13" t="s">
         <v>258</v>
@@ -19090,7 +19090,7 @@
         <v>652</v>
       </c>
       <c r="B930" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C930" s="13" t="s">
         <v>258</v>
@@ -19107,7 +19107,7 @@
         <v>690</v>
       </c>
       <c r="B931" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C931" s="13" t="s">
         <v>210</v>
@@ -19124,7 +19124,7 @@
         <v>691</v>
       </c>
       <c r="B932" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C932" s="13" t="s">
         <v>210</v>
@@ -19141,7 +19141,7 @@
         <v>692</v>
       </c>
       <c r="B933" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C933" s="13" t="s">
         <v>210</v>
@@ -19158,7 +19158,7 @@
         <v>693</v>
       </c>
       <c r="B934" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C934" s="13" t="s">
         <v>210</v>
@@ -19175,7 +19175,7 @@
         <v>178</v>
       </c>
       <c r="B935" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C935" s="13" t="s">
         <v>210</v>
@@ -19192,7 +19192,7 @@
         <v>658</v>
       </c>
       <c r="B936" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C936" s="13" t="s">
         <v>256</v>
@@ -19209,7 +19209,7 @@
         <v>660</v>
       </c>
       <c r="B937" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C937" s="13" t="s">
         <v>256</v>
@@ -19226,7 +19226,7 @@
         <v>663</v>
       </c>
       <c r="B938" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C938" s="13" t="s">
         <v>256</v>
@@ -19243,7 +19243,7 @@
         <v>694</v>
       </c>
       <c r="B939" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C939" s="13" t="s">
         <v>256</v>
@@ -19260,7 +19260,7 @@
         <v>695</v>
       </c>
       <c r="B940" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C940" s="13" t="s">
         <v>256</v>
@@ -19277,7 +19277,7 @@
         <v>696</v>
       </c>
       <c r="B941" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C941" s="13" t="s">
         <v>256</v>
@@ -19294,7 +19294,7 @@
         <v>664</v>
       </c>
       <c r="B942" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C942" s="13" t="s">
         <v>256</v>
@@ -19311,7 +19311,7 @@
         <v>697</v>
       </c>
       <c r="B943" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C943" s="13" t="s">
         <v>256</v>
@@ -19328,7 +19328,7 @@
         <v>679</v>
       </c>
       <c r="B944" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C944" s="13" t="s">
         <v>256</v>
@@ -19345,7 +19345,7 @@
         <v>668</v>
       </c>
       <c r="B945" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C945" s="13" t="s">
         <v>256</v>
@@ -19362,7 +19362,7 @@
         <v>669</v>
       </c>
       <c r="B946" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C946" s="13" t="s">
         <v>224</v>
@@ -19379,7 +19379,7 @@
         <v>698</v>
       </c>
       <c r="B947" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C947" s="13" t="s">
         <v>224</v>
@@ -19396,7 +19396,7 @@
         <v>699</v>
       </c>
       <c r="B948" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C948" s="13" t="s">
         <v>224</v>
@@ -19413,7 +19413,7 @@
         <v>667</v>
       </c>
       <c r="B949" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C949" s="13" t="s">
         <v>224</v>
@@ -19430,7 +19430,7 @@
         <v>649</v>
       </c>
       <c r="B950" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C950" s="13" t="s">
         <v>209</v>
@@ -19447,7 +19447,7 @@
         <v>700</v>
       </c>
       <c r="B951" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C951" s="13" t="s">
         <v>209</v>
@@ -19464,7 +19464,7 @@
         <v>701</v>
       </c>
       <c r="B952" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C952" s="13" t="s">
         <v>209</v>
@@ -19481,7 +19481,7 @@
         <v>648</v>
       </c>
       <c r="B953" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C953" s="13" t="s">
         <v>209</v>
@@ -19498,7 +19498,7 @@
         <v>702</v>
       </c>
       <c r="B954" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C954" s="13" t="s">
         <v>209</v>
@@ -19515,7 +19515,7 @@
         <v>643</v>
       </c>
       <c r="B955" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C955" s="13" t="s">
         <v>255</v>
@@ -19532,7 +19532,7 @@
         <v>645</v>
       </c>
       <c r="B956" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C956" s="13" t="s">
         <v>255</v>
@@ -19549,7 +19549,7 @@
         <v>703</v>
       </c>
       <c r="B957" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C957" s="13" t="s">
         <v>255</v>
@@ -19566,7 +19566,7 @@
         <v>687</v>
       </c>
       <c r="B958" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C958" s="13" t="s">
         <v>255</v>
@@ -19583,7 +19583,7 @@
         <v>704</v>
       </c>
       <c r="B959" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C959" s="13" t="s">
         <v>255</v>
@@ -19600,7 +19600,7 @@
         <v>113</v>
       </c>
       <c r="B960" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C960" s="13" t="s">
         <v>224</v>
@@ -19617,7 +19617,7 @@
         <v>667</v>
       </c>
       <c r="B961" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C961" s="13" t="s">
         <v>224</v>
@@ -19634,7 +19634,7 @@
         <v>646</v>
       </c>
       <c r="B962" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C962" s="13" t="s">
         <v>224</v>
@@ -19651,7 +19651,7 @@
         <v>669</v>
       </c>
       <c r="B963" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C963" s="13" t="s">
         <v>224</v>
@@ -19668,7 +19668,7 @@
         <v>705</v>
       </c>
       <c r="B964" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C964" s="13" t="s">
         <v>224</v>
@@ -19685,7 +19685,7 @@
         <v>658</v>
       </c>
       <c r="B965" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C965" s="13" t="s">
         <v>209</v>
@@ -19702,7 +19702,7 @@
         <v>668</v>
       </c>
       <c r="B966" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C966" s="13" t="s">
         <v>209</v>
@@ -19719,7 +19719,7 @@
         <v>660</v>
       </c>
       <c r="B967" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C967" s="13" t="s">
         <v>209</v>
@@ -19736,7 +19736,7 @@
         <v>681</v>
       </c>
       <c r="B968" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C968" s="13" t="s">
         <v>209</v>
@@ -19753,7 +19753,7 @@
         <v>706</v>
       </c>
       <c r="B969" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C969" s="13" t="s">
         <v>721</v>
@@ -19770,7 +19770,7 @@
         <v>644</v>
       </c>
       <c r="B970" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C970" s="13" t="s">
         <v>721</v>
@@ -19787,7 +19787,7 @@
         <v>707</v>
       </c>
       <c r="B971" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C971" s="13" t="s">
         <v>721</v>
@@ -19804,7 +19804,7 @@
         <v>708</v>
       </c>
       <c r="B972" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C972" s="13" t="s">
         <v>721</v>
@@ -19821,7 +19821,7 @@
         <v>660</v>
       </c>
       <c r="B973" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C973" s="13" t="s">
         <v>209</v>
@@ -19838,7 +19838,7 @@
         <v>687</v>
       </c>
       <c r="B974" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C974" s="13" t="s">
         <v>209</v>
@@ -19855,7 +19855,7 @@
         <v>709</v>
       </c>
       <c r="B975" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C975" s="13" t="s">
         <v>209</v>
@@ -19872,7 +19872,7 @@
         <v>658</v>
       </c>
       <c r="B976" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C976" s="13" t="s">
         <v>209</v>
@@ -19889,7 +19889,7 @@
         <v>675</v>
       </c>
       <c r="B977" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C977" s="13" t="s">
         <v>258</v>
@@ -19906,7 +19906,7 @@
         <v>704</v>
       </c>
       <c r="B978" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C978" s="13" t="s">
         <v>258</v>
@@ -19923,7 +19923,7 @@
         <v>650</v>
       </c>
       <c r="B979" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C979" s="13" t="s">
         <v>258</v>
@@ -19940,7 +19940,7 @@
         <v>687</v>
       </c>
       <c r="B980" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C980" s="13" t="s">
         <v>258</v>
@@ -19957,7 +19957,7 @@
         <v>653</v>
       </c>
       <c r="B981" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C981" s="13" t="s">
         <v>258</v>
@@ -19974,7 +19974,7 @@
         <v>705</v>
       </c>
       <c r="B982" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C982" s="13" t="s">
         <v>224</v>
@@ -19991,7 +19991,7 @@
         <v>710</v>
       </c>
       <c r="B983" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C983" s="13" t="s">
         <v>224</v>
@@ -20008,7 +20008,7 @@
         <v>669</v>
       </c>
       <c r="B984" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C984" s="13" t="s">
         <v>224</v>
@@ -20025,7 +20025,7 @@
         <v>711</v>
       </c>
       <c r="B985" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C985" s="13" t="s">
         <v>224</v>
@@ -20042,7 +20042,7 @@
         <v>712</v>
       </c>
       <c r="B986" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C986" s="13" t="s">
         <v>224</v>
@@ -20059,7 +20059,7 @@
         <v>711</v>
       </c>
       <c r="B987" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C987" s="13" t="s">
         <v>224</v>
@@ -20076,7 +20076,7 @@
         <v>705</v>
       </c>
       <c r="B988" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C988" s="13" t="s">
         <v>224</v>
@@ -20093,7 +20093,7 @@
         <v>646</v>
       </c>
       <c r="B989" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C989" s="13" t="s">
         <v>224</v>
@@ -20110,7 +20110,7 @@
         <v>669</v>
       </c>
       <c r="B990" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C990" s="13" t="s">
         <v>224</v>
@@ -20127,7 +20127,7 @@
         <v>713</v>
       </c>
       <c r="B991" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C991" s="13" t="s">
         <v>224</v>
@@ -20144,7 +20144,7 @@
         <v>260</v>
       </c>
       <c r="B992" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C992" s="13" t="s">
         <v>210</v>
@@ -20161,7 +20161,7 @@
         <v>259</v>
       </c>
       <c r="B993" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C993" s="13" t="s">
         <v>210</v>
@@ -20178,7 +20178,7 @@
         <v>714</v>
       </c>
       <c r="B994" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C994" s="13" t="s">
         <v>210</v>
@@ -20195,7 +20195,7 @@
         <v>183</v>
       </c>
       <c r="B995" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C995" s="13" t="s">
         <v>210</v>
@@ -20212,7 +20212,7 @@
         <v>658</v>
       </c>
       <c r="B996" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C996" s="13" t="s">
         <v>256</v>
@@ -20229,7 +20229,7 @@
         <v>661</v>
       </c>
       <c r="B997" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C997" s="13" t="s">
         <v>256</v>
@@ -20246,7 +20246,7 @@
         <v>715</v>
       </c>
       <c r="B998" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C998" s="13" t="s">
         <v>256</v>
@@ -20263,7 +20263,7 @@
         <v>666</v>
       </c>
       <c r="B999" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C999" s="13" t="s">
         <v>256</v>
@@ -20280,7 +20280,7 @@
         <v>716</v>
       </c>
       <c r="B1000" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C1000" s="13" t="s">
         <v>256</v>
@@ -20297,7 +20297,7 @@
         <v>717</v>
       </c>
       <c r="B1001" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C1001" s="13" t="s">
         <v>257</v>
@@ -20314,7 +20314,7 @@
         <v>718</v>
       </c>
       <c r="B1002" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C1002" s="13" t="s">
         <v>257</v>
@@ -20331,7 +20331,7 @@
         <v>719</v>
       </c>
       <c r="B1003" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C1003" s="13" t="s">
         <v>257</v>
@@ -20348,7 +20348,7 @@
         <v>672</v>
       </c>
       <c r="B1004" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C1004" s="13" t="s">
         <v>257</v>
@@ -20365,7 +20365,7 @@
         <v>720</v>
       </c>
       <c r="B1005" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C1005" s="13" t="s">
         <v>257</v>
@@ -20382,7 +20382,7 @@
         <v>753</v>
       </c>
       <c r="B1006" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C1006" s="17" t="s">
         <v>760</v>
@@ -20399,7 +20399,7 @@
         <v>275</v>
       </c>
       <c r="B1007" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C1007" s="17" t="s">
         <v>760</v>
@@ -20416,7 +20416,7 @@
         <v>754</v>
       </c>
       <c r="B1008" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C1008" s="17" t="s">
         <v>760</v>
@@ -20433,7 +20433,7 @@
         <v>755</v>
       </c>
       <c r="B1009" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C1009" s="17" t="s">
         <v>760</v>
@@ -20450,7 +20450,7 @@
         <v>756</v>
       </c>
       <c r="B1010" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C1010" s="17" t="s">
         <v>760</v>
@@ -20467,7 +20467,7 @@
         <v>447</v>
       </c>
       <c r="B1011" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C1011" s="17" t="s">
         <v>760</v>
@@ -20484,7 +20484,7 @@
         <v>754</v>
       </c>
       <c r="B1012" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C1012" s="17" t="s">
         <v>760</v>
@@ -20501,7 +20501,7 @@
         <v>757</v>
       </c>
       <c r="B1013" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C1013" s="17" t="s">
         <v>760</v>
@@ -20518,7 +20518,7 @@
         <v>467</v>
       </c>
       <c r="B1014" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C1014" s="17" t="s">
         <v>760</v>
@@ -20535,7 +20535,7 @@
         <v>755</v>
       </c>
       <c r="B1015" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C1015" s="17" t="s">
         <v>760</v>

--- a/Docs/需求/(正式5_1_111年)環保署環境部資料_20240410.1100.xlsx
+++ b/Docs/需求/(正式5_1_111年)環保署環境部資料_20240410.1100.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\Esdms\Docs\需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CC57C2-5855-44EC-9BF4-F449AC9C1995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2A1519-B444-42B2-8C49-1ACB9A04789F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6C794C7C-3D2F-43FB-8B59-79FE3D9DEF6E}"/>
   </bookViews>
@@ -2768,7 +2768,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>委辦單位(會議代碼)_FtisActivityCategoryId</t>
+    <t>委辦單位(會議代碼)_FtisOutActivityCategoryId</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
